--- a/DAIL/database/records/ui/skills/ClassSelection/building 99 skills.xlsx
+++ b/DAIL/database/records/ui/skills/ClassSelection/building 99 skills.xlsx
@@ -537,9 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A693"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A693" sqref="A1:A693"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1887,49 +1885,49 @@
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
         <f>Generator!I28</f>
-        <v xml:space="preserve">echo bitmapPositionX,-68, &gt;&gt;  skills_classselectionbutton26.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionX,750, &gt;&gt;  skills_classselectionbutton26.dbr </v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f>Generator!I29</f>
-        <v xml:space="preserve">echo bitmapPositionX,-68, &gt;&gt;  skills_classselectionbutton27.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionX,750, &gt;&gt;  skills_classselectionbutton27.dbr </v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
         <f>Generator!I30</f>
-        <v xml:space="preserve">echo bitmapPositionX,-68, &gt;&gt;  skills_classselectionbutton28.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionX,750, &gt;&gt;  skills_classselectionbutton28.dbr </v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
         <f>Generator!I31</f>
-        <v xml:space="preserve">echo bitmapPositionX,-68, &gt;&gt;  skills_classselectionbutton29.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionX,750, &gt;&gt;  skills_classselectionbutton29.dbr </v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
         <f>Generator!I32</f>
-        <v xml:space="preserve">echo bitmapPositionX,-68, &gt;&gt;  skills_classselectionbutton30.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionX,750, &gt;&gt;  skills_classselectionbutton30.dbr </v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
         <f>Generator!I33</f>
-        <v xml:space="preserve">echo bitmapPositionX,-68, &gt;&gt;  skills_classselectionbutton31.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionX,750, &gt;&gt;  skills_classselectionbutton31.dbr </v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
         <f>Generator!I34</f>
-        <v xml:space="preserve">echo bitmapPositionX,-68, &gt;&gt;  skills_classselectionbutton32.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionX,750, &gt;&gt;  skills_classselectionbutton32.dbr </v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
         <f>Generator!I35</f>
-        <v xml:space="preserve">echo bitmapPositionX,-68, &gt;&gt;  skills_classselectionbutton33.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionX,750, &gt;&gt;  skills_classselectionbutton33.dbr </v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
@@ -2343,391 +2341,391 @@
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="str">
         <f>Generator!J5</f>
-        <v xml:space="preserve">echo bitmapPositionY,20, &gt;&gt;  skills_classselectionbutton02.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,23, &gt;&gt;  skills_classselectionbutton02.dbr </v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="str">
         <f>Generator!J6</f>
-        <v xml:space="preserve">echo bitmapPositionY,40, &gt;&gt;  skills_classselectionbutton03.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,46, &gt;&gt;  skills_classselectionbutton03.dbr </v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="str">
         <f>Generator!J7</f>
-        <v xml:space="preserve">echo bitmapPositionY,60, &gt;&gt;  skills_classselectionbutton04.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,69, &gt;&gt;  skills_classselectionbutton04.dbr </v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="str">
         <f>Generator!J8</f>
-        <v xml:space="preserve">echo bitmapPositionY,80, &gt;&gt;  skills_classselectionbutton05.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,92, &gt;&gt;  skills_classselectionbutton05.dbr </v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="str">
         <f>Generator!J9</f>
-        <v xml:space="preserve">echo bitmapPositionY,100, &gt;&gt;  skills_classselectionbutton06.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,115, &gt;&gt;  skills_classselectionbutton06.dbr </v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="str">
         <f>Generator!J10</f>
-        <v xml:space="preserve">echo bitmapPositionY,120, &gt;&gt;  skills_classselectionbutton07.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,138, &gt;&gt;  skills_classselectionbutton07.dbr </v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="str">
         <f>Generator!J11</f>
-        <v xml:space="preserve">echo bitmapPositionY,140, &gt;&gt;  skills_classselectionbutton08.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,161, &gt;&gt;  skills_classselectionbutton08.dbr </v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="str">
         <f>Generator!J12</f>
-        <v xml:space="preserve">echo bitmapPositionY,160, &gt;&gt;  skills_classselectionbutton09.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,184, &gt;&gt;  skills_classselectionbutton09.dbr </v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="str">
         <f>Generator!J13</f>
-        <v xml:space="preserve">echo bitmapPositionY,180, &gt;&gt;  skills_classselectionbutton10.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,207, &gt;&gt;  skills_classselectionbutton10.dbr </v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="str">
         <f>Generator!J14</f>
-        <v xml:space="preserve">echo bitmapPositionY,200, &gt;&gt;  skills_classselectionbutton11.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,230, &gt;&gt;  skills_classselectionbutton11.dbr </v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="str">
         <f>Generator!J15</f>
-        <v xml:space="preserve">echo bitmapPositionY,220, &gt;&gt;  skills_classselectionbutton12.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,253, &gt;&gt;  skills_classselectionbutton12.dbr </v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="str">
         <f>Generator!J16</f>
-        <v xml:space="preserve">echo bitmapPositionY,240, &gt;&gt;  skills_classselectionbutton13.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,276, &gt;&gt;  skills_classselectionbutton13.dbr </v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="str">
         <f>Generator!J17</f>
-        <v xml:space="preserve">echo bitmapPositionY,260, &gt;&gt;  skills_classselectionbutton14.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,299, &gt;&gt;  skills_classselectionbutton14.dbr </v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="str">
         <f>Generator!J18</f>
-        <v xml:space="preserve">echo bitmapPositionY,280, &gt;&gt;  skills_classselectionbutton15.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,322, &gt;&gt;  skills_classselectionbutton15.dbr </v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="str">
         <f>Generator!J19</f>
-        <v xml:space="preserve">echo bitmapPositionY,300, &gt;&gt;  skills_classselectionbutton16.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,345, &gt;&gt;  skills_classselectionbutton16.dbr </v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="str">
         <f>Generator!J20</f>
-        <v xml:space="preserve">echo bitmapPositionY,320, &gt;&gt;  skills_classselectionbutton17.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,368, &gt;&gt;  skills_classselectionbutton17.dbr </v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="str">
         <f>Generator!J21</f>
-        <v xml:space="preserve">echo bitmapPositionY,340, &gt;&gt;  skills_classselectionbutton18.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,391, &gt;&gt;  skills_classselectionbutton18.dbr </v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="str">
         <f>Generator!J22</f>
-        <v xml:space="preserve">echo bitmapPositionY,360, &gt;&gt;  skills_classselectionbutton19.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,414, &gt;&gt;  skills_classselectionbutton19.dbr </v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="str">
         <f>Generator!J23</f>
-        <v xml:space="preserve">echo bitmapPositionY,380, &gt;&gt;  skills_classselectionbutton20.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,437, &gt;&gt;  skills_classselectionbutton20.dbr </v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="str">
         <f>Generator!J24</f>
-        <v xml:space="preserve">echo bitmapPositionY,400, &gt;&gt;  skills_classselectionbutton21.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,460, &gt;&gt;  skills_classselectionbutton21.dbr </v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="str">
         <f>Generator!J25</f>
-        <v xml:space="preserve">echo bitmapPositionY,420, &gt;&gt;  skills_classselectionbutton22.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,483, &gt;&gt;  skills_classselectionbutton22.dbr </v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="str">
         <f>Generator!J26</f>
-        <v xml:space="preserve">echo bitmapPositionY,440, &gt;&gt;  skills_classselectionbutton23.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,506, &gt;&gt;  skills_classselectionbutton23.dbr </v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="str">
         <f>Generator!J27</f>
-        <v xml:space="preserve">echo bitmapPositionY,460, &gt;&gt;  skills_classselectionbutton24.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,529, &gt;&gt;  skills_classselectionbutton24.dbr </v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="str">
         <f>Generator!J28</f>
-        <v xml:space="preserve">echo bitmapPositionY,480, &gt;&gt;  skills_classselectionbutton25.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,552, &gt;&gt;  skills_classselectionbutton25.dbr </v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="str">
         <f>Generator!J29</f>
-        <v xml:space="preserve">echo bitmapPositionY,500, &gt;&gt;  skills_classselectionbutton26.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,0, &gt;&gt;  skills_classselectionbutton26.dbr </v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="str">
         <f>Generator!J30</f>
-        <v xml:space="preserve">echo bitmapPositionY,520, &gt;&gt;  skills_classselectionbutton27.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,23, &gt;&gt;  skills_classselectionbutton27.dbr </v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="str">
         <f>Generator!J31</f>
-        <v xml:space="preserve">echo bitmapPositionY,540, &gt;&gt;  skills_classselectionbutton28.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,46, &gt;&gt;  skills_classselectionbutton28.dbr </v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="str">
         <f>Generator!J32</f>
-        <v xml:space="preserve">echo bitmapPositionY,560, &gt;&gt;  skills_classselectionbutton29.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,69, &gt;&gt;  skills_classselectionbutton29.dbr </v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="str">
         <f>Generator!J33</f>
-        <v xml:space="preserve">echo bitmapPositionY,580, &gt;&gt;  skills_classselectionbutton30.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,92, &gt;&gt;  skills_classselectionbutton30.dbr </v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="str">
         <f>Generator!J34</f>
-        <v xml:space="preserve">echo bitmapPositionY,600, &gt;&gt;  skills_classselectionbutton31.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,115, &gt;&gt;  skills_classselectionbutton31.dbr </v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="str">
         <f>Generator!J35</f>
-        <v xml:space="preserve">echo bitmapPositionY,620, &gt;&gt;  skills_classselectionbutton32.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,138, &gt;&gt;  skills_classselectionbutton32.dbr </v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="str">
         <f>Generator!J36</f>
-        <v xml:space="preserve">echo bitmapPositionY,640, &gt;&gt;  skills_classselectionbutton33.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,161, &gt;&gt;  skills_classselectionbutton33.dbr </v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="str">
         <f>Generator!J37</f>
-        <v xml:space="preserve">echo bitmapPositionY,0, &gt;&gt;  skills_classselectionbutton34.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,184, &gt;&gt;  skills_classselectionbutton34.dbr </v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="str">
         <f>Generator!J38</f>
-        <v xml:space="preserve">echo bitmapPositionY,20, &gt;&gt;  skills_classselectionbutton35.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,207, &gt;&gt;  skills_classselectionbutton35.dbr </v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="str">
         <f>Generator!J39</f>
-        <v xml:space="preserve">echo bitmapPositionY,40, &gt;&gt;  skills_classselectionbutton36.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,230, &gt;&gt;  skills_classselectionbutton36.dbr </v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="str">
         <f>Generator!J40</f>
-        <v xml:space="preserve">echo bitmapPositionY,60, &gt;&gt;  skills_classselectionbutton37.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,253, &gt;&gt;  skills_classselectionbutton37.dbr </v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="str">
         <f>Generator!J41</f>
-        <v xml:space="preserve">echo bitmapPositionY,80, &gt;&gt;  skills_classselectionbutton38.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,276, &gt;&gt;  skills_classselectionbutton38.dbr </v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="str">
         <f>Generator!J42</f>
-        <v xml:space="preserve">echo bitmapPositionY,100, &gt;&gt;  skills_classselectionbutton39.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,299, &gt;&gt;  skills_classselectionbutton39.dbr </v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="str">
         <f>Generator!J43</f>
-        <v xml:space="preserve">echo bitmapPositionY,120, &gt;&gt;  skills_classselectionbutton40.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,322, &gt;&gt;  skills_classselectionbutton40.dbr </v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="str">
         <f>Generator!J44</f>
-        <v xml:space="preserve">echo bitmapPositionY,140, &gt;&gt;  skills_classselectionbutton41.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,345, &gt;&gt;  skills_classselectionbutton41.dbr </v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="str">
         <f>Generator!J45</f>
-        <v xml:space="preserve">echo bitmapPositionY,160, &gt;&gt;  skills_classselectionbutton42.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,368, &gt;&gt;  skills_classselectionbutton42.dbr </v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="str">
         <f>Generator!J46</f>
-        <v xml:space="preserve">echo bitmapPositionY,180, &gt;&gt;  skills_classselectionbutton43.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,391, &gt;&gt;  skills_classselectionbutton43.dbr </v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="str">
         <f>Generator!J47</f>
-        <v xml:space="preserve">echo bitmapPositionY,200, &gt;&gt;  skills_classselectionbutton44.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,414, &gt;&gt;  skills_classselectionbutton44.dbr </v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="str">
         <f>Generator!J48</f>
-        <v xml:space="preserve">echo bitmapPositionY,220, &gt;&gt;  skills_classselectionbutton45.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,437, &gt;&gt;  skills_classselectionbutton45.dbr </v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="str">
         <f>Generator!J49</f>
-        <v xml:space="preserve">echo bitmapPositionY,240, &gt;&gt;  skills_classselectionbutton46.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,460, &gt;&gt;  skills_classselectionbutton46.dbr </v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="str">
         <f>Generator!J50</f>
-        <v xml:space="preserve">echo bitmapPositionY,260, &gt;&gt;  skills_classselectionbutton47.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,483, &gt;&gt;  skills_classselectionbutton47.dbr </v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="str">
         <f>Generator!J51</f>
-        <v xml:space="preserve">echo bitmapPositionY,280, &gt;&gt;  skills_classselectionbutton48.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,506, &gt;&gt;  skills_classselectionbutton48.dbr </v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="str">
         <f>Generator!J52</f>
-        <v xml:space="preserve">echo bitmapPositionY,300, &gt;&gt;  skills_classselectionbutton49.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,529, &gt;&gt;  skills_classselectionbutton49.dbr </v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="str">
         <f>Generator!J53</f>
-        <v xml:space="preserve">echo bitmapPositionY,320, &gt;&gt;  skills_classselectionbutton50.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,552, &gt;&gt;  skills_classselectionbutton50.dbr </v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="str">
         <f>Generator!J54</f>
-        <v xml:space="preserve">echo bitmapPositionY,340, &gt;&gt;  skills_classselectionbutton51.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,575, &gt;&gt;  skills_classselectionbutton51.dbr </v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="str">
         <f>Generator!J55</f>
-        <v xml:space="preserve">echo bitmapPositionY,360, &gt;&gt;  skills_classselectionbutton52.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,598, &gt;&gt;  skills_classselectionbutton52.dbr </v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="str">
         <f>Generator!J56</f>
-        <v xml:space="preserve">echo bitmapPositionY,380, &gt;&gt;  skills_classselectionbutton53.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,621, &gt;&gt;  skills_classselectionbutton53.dbr </v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="str">
         <f>Generator!J57</f>
-        <v xml:space="preserve">echo bitmapPositionY,400, &gt;&gt;  skills_classselectionbutton54.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,644, &gt;&gt;  skills_classselectionbutton54.dbr </v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="str">
         <f>Generator!J58</f>
-        <v xml:space="preserve">echo bitmapPositionY,420, &gt;&gt;  skills_classselectionbutton55.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,667, &gt;&gt;  skills_classselectionbutton55.dbr </v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="str">
         <f>Generator!J59</f>
-        <v xml:space="preserve">echo bitmapPositionY,440, &gt;&gt;  skills_classselectionbutton56.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,690, &gt;&gt;  skills_classselectionbutton56.dbr </v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="str">
         <f>Generator!J60</f>
-        <v xml:space="preserve">echo bitmapPositionY,460, &gt;&gt;  skills_classselectionbutton57.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,713, &gt;&gt;  skills_classselectionbutton57.dbr </v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="str">
         <f>Generator!J61</f>
-        <v xml:space="preserve">echo bitmapPositionY,480, &gt;&gt;  skills_classselectionbutton58.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,736, &gt;&gt;  skills_classselectionbutton58.dbr </v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="str">
         <f>Generator!J62</f>
-        <v xml:space="preserve">echo bitmapPositionY,500, &gt;&gt;  skills_classselectionbutton59.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,759, &gt;&gt;  skills_classselectionbutton59.dbr </v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="str">
         <f>Generator!J63</f>
-        <v xml:space="preserve">echo bitmapPositionY,520, &gt;&gt;  skills_classselectionbutton60.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,782, &gt;&gt;  skills_classselectionbutton60.dbr </v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="str">
         <f>Generator!J64</f>
-        <v xml:space="preserve">echo bitmapPositionY,540, &gt;&gt;  skills_classselectionbutton61.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,805, &gt;&gt;  skills_classselectionbutton61.dbr </v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="str">
         <f>Generator!J65</f>
-        <v xml:space="preserve">echo bitmapPositionY,560, &gt;&gt;  skills_classselectionbutton62.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,828, &gt;&gt;  skills_classselectionbutton62.dbr </v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="str">
         <f>Generator!J66</f>
-        <v xml:space="preserve">echo bitmapPositionY,580, &gt;&gt;  skills_classselectionbutton63.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,851, &gt;&gt;  skills_classselectionbutton63.dbr </v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="str">
         <f>Generator!J67</f>
-        <v xml:space="preserve">echo bitmapPositionY,600, &gt;&gt;  skills_classselectionbutton64.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,874, &gt;&gt;  skills_classselectionbutton64.dbr </v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="str">
         <f>Generator!J68</f>
-        <v xml:space="preserve">echo bitmapPositionY,620, &gt;&gt;  skills_classselectionbutton65.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,897, &gt;&gt;  skills_classselectionbutton65.dbr </v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="str">
         <f>Generator!J69</f>
-        <v xml:space="preserve">echo bitmapPositionY,640, &gt;&gt;  skills_classselectionbutton66.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,920, &gt;&gt;  skills_classselectionbutton66.dbr </v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
@@ -2739,187 +2737,187 @@
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="str">
         <f>Generator!J71</f>
-        <v xml:space="preserve">echo bitmapPositionY,20, &gt;&gt;  skills_classselectionbutton68.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,23, &gt;&gt;  skills_classselectionbutton68.dbr </v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="str">
         <f>Generator!J72</f>
-        <v xml:space="preserve">echo bitmapPositionY,40, &gt;&gt;  skills_classselectionbutton69.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,46, &gt;&gt;  skills_classselectionbutton69.dbr </v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="str">
         <f>Generator!J73</f>
-        <v xml:space="preserve">echo bitmapPositionY,60, &gt;&gt;  skills_classselectionbutton70.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,69, &gt;&gt;  skills_classselectionbutton70.dbr </v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="str">
         <f>Generator!J74</f>
-        <v xml:space="preserve">echo bitmapPositionY,80, &gt;&gt;  skills_classselectionbutton71.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,92, &gt;&gt;  skills_classselectionbutton71.dbr </v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="str">
         <f>Generator!J75</f>
-        <v xml:space="preserve">echo bitmapPositionY,100, &gt;&gt;  skills_classselectionbutton72.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,115, &gt;&gt;  skills_classselectionbutton72.dbr </v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="str">
         <f>Generator!J76</f>
-        <v xml:space="preserve">echo bitmapPositionY,120, &gt;&gt;  skills_classselectionbutton73.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,138, &gt;&gt;  skills_classselectionbutton73.dbr </v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="str">
         <f>Generator!J77</f>
-        <v xml:space="preserve">echo bitmapPositionY,140, &gt;&gt;  skills_classselectionbutton74.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,161, &gt;&gt;  skills_classselectionbutton74.dbr </v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="str">
         <f>Generator!J78</f>
-        <v xml:space="preserve">echo bitmapPositionY,160, &gt;&gt;  skills_classselectionbutton75.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,184, &gt;&gt;  skills_classselectionbutton75.dbr </v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="str">
         <f>Generator!J79</f>
-        <v xml:space="preserve">echo bitmapPositionY,180, &gt;&gt;  skills_classselectionbutton76.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,207, &gt;&gt;  skills_classselectionbutton76.dbr </v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="str">
         <f>Generator!J80</f>
-        <v xml:space="preserve">echo bitmapPositionY,200, &gt;&gt;  skills_classselectionbutton77.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,230, &gt;&gt;  skills_classselectionbutton77.dbr </v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="str">
         <f>Generator!J81</f>
-        <v xml:space="preserve">echo bitmapPositionY,220, &gt;&gt;  skills_classselectionbutton78.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,253, &gt;&gt;  skills_classselectionbutton78.dbr </v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="str">
         <f>Generator!J82</f>
-        <v xml:space="preserve">echo bitmapPositionY,240, &gt;&gt;  skills_classselectionbutton79.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,276, &gt;&gt;  skills_classselectionbutton79.dbr </v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="str">
         <f>Generator!J83</f>
-        <v xml:space="preserve">echo bitmapPositionY,260, &gt;&gt;  skills_classselectionbutton80.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,299, &gt;&gt;  skills_classselectionbutton80.dbr </v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="str">
         <f>Generator!J84</f>
-        <v xml:space="preserve">echo bitmapPositionY,280, &gt;&gt;  skills_classselectionbutton81.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,322, &gt;&gt;  skills_classselectionbutton81.dbr </v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="str">
         <f>Generator!J85</f>
-        <v xml:space="preserve">echo bitmapPositionY,300, &gt;&gt;  skills_classselectionbutton82.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,345, &gt;&gt;  skills_classselectionbutton82.dbr </v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="str">
         <f>Generator!J86</f>
-        <v xml:space="preserve">echo bitmapPositionY,320, &gt;&gt;  skills_classselectionbutton83.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,368, &gt;&gt;  skills_classselectionbutton83.dbr </v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="str">
         <f>Generator!J87</f>
-        <v xml:space="preserve">echo bitmapPositionY,340, &gt;&gt;  skills_classselectionbutton84.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,391, &gt;&gt;  skills_classselectionbutton84.dbr </v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="str">
         <f>Generator!J88</f>
-        <v xml:space="preserve">echo bitmapPositionY,360, &gt;&gt;  skills_classselectionbutton85.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,414, &gt;&gt;  skills_classselectionbutton85.dbr </v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="str">
         <f>Generator!J89</f>
-        <v xml:space="preserve">echo bitmapPositionY,380, &gt;&gt;  skills_classselectionbutton86.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,437, &gt;&gt;  skills_classselectionbutton86.dbr </v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="str">
         <f>Generator!J90</f>
-        <v xml:space="preserve">echo bitmapPositionY,400, &gt;&gt;  skills_classselectionbutton87.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,460, &gt;&gt;  skills_classselectionbutton87.dbr </v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="str">
         <f>Generator!J91</f>
-        <v xml:space="preserve">echo bitmapPositionY,420, &gt;&gt;  skills_classselectionbutton88.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,483, &gt;&gt;  skills_classselectionbutton88.dbr </v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="str">
         <f>Generator!J92</f>
-        <v xml:space="preserve">echo bitmapPositionY,440, &gt;&gt;  skills_classselectionbutton89.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,506, &gt;&gt;  skills_classselectionbutton89.dbr </v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="str">
         <f>Generator!J93</f>
-        <v xml:space="preserve">echo bitmapPositionY,460, &gt;&gt;  skills_classselectionbutton90.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,529, &gt;&gt;  skills_classselectionbutton90.dbr </v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="str">
         <f>Generator!J94</f>
-        <v xml:space="preserve">echo bitmapPositionY,480, &gt;&gt;  skills_classselectionbutton91.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,552, &gt;&gt;  skills_classselectionbutton91.dbr </v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="str">
         <f>Generator!J95</f>
-        <v xml:space="preserve">echo bitmapPositionY,500, &gt;&gt;  skills_classselectionbutton92.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,575, &gt;&gt;  skills_classselectionbutton92.dbr </v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="str">
         <f>Generator!J96</f>
-        <v xml:space="preserve">echo bitmapPositionY,520, &gt;&gt;  skills_classselectionbutton93.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,598, &gt;&gt;  skills_classselectionbutton93.dbr </v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="str">
         <f>Generator!J97</f>
-        <v xml:space="preserve">echo bitmapPositionY,540, &gt;&gt;  skills_classselectionbutton94.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,621, &gt;&gt;  skills_classselectionbutton94.dbr </v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="str">
         <f>Generator!J98</f>
-        <v xml:space="preserve">echo bitmapPositionY,560, &gt;&gt;  skills_classselectionbutton95.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,644, &gt;&gt;  skills_classselectionbutton95.dbr </v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="str">
         <f>Generator!J99</f>
-        <v xml:space="preserve">echo bitmapPositionY,580, &gt;&gt;  skills_classselectionbutton96.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,667, &gt;&gt;  skills_classselectionbutton96.dbr </v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="str">
         <f>Generator!J100</f>
-        <v xml:space="preserve">echo bitmapPositionY,600, &gt;&gt;  skills_classselectionbutton97.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,690, &gt;&gt;  skills_classselectionbutton97.dbr </v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="str">
         <f>Generator!J101</f>
-        <v xml:space="preserve">echo bitmapPositionY,620, &gt;&gt;  skills_classselectionbutton98.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,713, &gt;&gt;  skills_classselectionbutton98.dbr </v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
@@ -3075,49 +3073,49 @@
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="str">
         <f>Generator!K28</f>
-        <v>echo textBoxX,-68, &gt;&gt;   skills_classselectiontext26.dbr</v>
+        <v>echo textBoxX,750, &gt;&gt;   skills_classselectiontext26.dbr</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="str">
         <f>Generator!K29</f>
-        <v>echo textBoxX,-68, &gt;&gt;   skills_classselectiontext27.dbr</v>
+        <v>echo textBoxX,750, &gt;&gt;   skills_classselectiontext27.dbr</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="str">
         <f>Generator!K30</f>
-        <v>echo textBoxX,-68, &gt;&gt;   skills_classselectiontext28.dbr</v>
+        <v>echo textBoxX,750, &gt;&gt;   skills_classselectiontext28.dbr</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="str">
         <f>Generator!K31</f>
-        <v>echo textBoxX,-68, &gt;&gt;   skills_classselectiontext29.dbr</v>
+        <v>echo textBoxX,750, &gt;&gt;   skills_classselectiontext29.dbr</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="str">
         <f>Generator!K32</f>
-        <v>echo textBoxX,-68, &gt;&gt;   skills_classselectiontext30.dbr</v>
+        <v>echo textBoxX,750, &gt;&gt;   skills_classselectiontext30.dbr</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="str">
         <f>Generator!K33</f>
-        <v>echo textBoxX,-68, &gt;&gt;   skills_classselectiontext31.dbr</v>
+        <v>echo textBoxX,750, &gt;&gt;   skills_classselectiontext31.dbr</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="str">
         <f>Generator!K34</f>
-        <v>echo textBoxX,-68, &gt;&gt;   skills_classselectiontext32.dbr</v>
+        <v>echo textBoxX,750, &gt;&gt;   skills_classselectiontext32.dbr</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="str">
         <f>Generator!K35</f>
-        <v>echo textBoxX,-68, &gt;&gt;   skills_classselectiontext33.dbr</v>
+        <v>echo textBoxX,750, &gt;&gt;   skills_classselectiontext33.dbr</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
@@ -3525,391 +3523,391 @@
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="str">
         <f>Generator!L4</f>
-        <v>echo textBoxY,20, &gt;&gt;   skills_classselectiontext02.dbr</v>
+        <v>echo textBoxY,23, &gt;&gt;   skills_classselectiontext02.dbr</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="str">
         <f>Generator!L5</f>
-        <v>echo textBoxY,40, &gt;&gt;   skills_classselectiontext03.dbr</v>
+        <v>echo textBoxY,46, &gt;&gt;   skills_classselectiontext03.dbr</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="str">
         <f>Generator!L6</f>
-        <v>echo textBoxY,60, &gt;&gt;   skills_classselectiontext04.dbr</v>
+        <v>echo textBoxY,69, &gt;&gt;   skills_classselectiontext04.dbr</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" t="str">
         <f>Generator!L7</f>
-        <v>echo textBoxY,80, &gt;&gt;   skills_classselectiontext05.dbr</v>
+        <v>echo textBoxY,92, &gt;&gt;   skills_classselectiontext05.dbr</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" t="str">
         <f>Generator!L8</f>
-        <v>echo textBoxY,100, &gt;&gt;   skills_classselectiontext06.dbr</v>
+        <v>echo textBoxY,115, &gt;&gt;   skills_classselectiontext06.dbr</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" t="str">
         <f>Generator!L9</f>
-        <v>echo textBoxY,120, &gt;&gt;   skills_classselectiontext07.dbr</v>
+        <v>echo textBoxY,138, &gt;&gt;   skills_classselectiontext07.dbr</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" t="str">
         <f>Generator!L10</f>
-        <v>echo textBoxY,140, &gt;&gt;   skills_classselectiontext08.dbr</v>
+        <v>echo textBoxY,161, &gt;&gt;   skills_classselectiontext08.dbr</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" t="str">
         <f>Generator!L11</f>
-        <v>echo textBoxY,160, &gt;&gt;   skills_classselectiontext09.dbr</v>
+        <v>echo textBoxY,184, &gt;&gt;   skills_classselectiontext09.dbr</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" t="str">
         <f>Generator!L12</f>
-        <v>echo textBoxY,180, &gt;&gt;   skills_classselectiontext10.dbr</v>
+        <v>echo textBoxY,207, &gt;&gt;   skills_classselectiontext10.dbr</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" t="str">
         <f>Generator!L13</f>
-        <v>echo textBoxY,200, &gt;&gt;   skills_classselectiontext11.dbr</v>
+        <v>echo textBoxY,230, &gt;&gt;   skills_classselectiontext11.dbr</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" t="str">
         <f>Generator!L14</f>
-        <v>echo textBoxY,220, &gt;&gt;   skills_classselectiontext12.dbr</v>
+        <v>echo textBoxY,253, &gt;&gt;   skills_classselectiontext12.dbr</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" t="str">
         <f>Generator!L15</f>
-        <v>echo textBoxY,240, &gt;&gt;   skills_classselectiontext13.dbr</v>
+        <v>echo textBoxY,276, &gt;&gt;   skills_classselectiontext13.dbr</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" t="str">
         <f>Generator!L16</f>
-        <v>echo textBoxY,260, &gt;&gt;   skills_classselectiontext14.dbr</v>
+        <v>echo textBoxY,299, &gt;&gt;   skills_classselectiontext14.dbr</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" t="str">
         <f>Generator!L17</f>
-        <v>echo textBoxY,280, &gt;&gt;   skills_classselectiontext15.dbr</v>
+        <v>echo textBoxY,322, &gt;&gt;   skills_classselectiontext15.dbr</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" t="str">
         <f>Generator!L18</f>
-        <v>echo textBoxY,300, &gt;&gt;   skills_classselectiontext16.dbr</v>
+        <v>echo textBoxY,345, &gt;&gt;   skills_classselectiontext16.dbr</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" t="str">
         <f>Generator!L19</f>
-        <v>echo textBoxY,320, &gt;&gt;   skills_classselectiontext17.dbr</v>
+        <v>echo textBoxY,368, &gt;&gt;   skills_classselectiontext17.dbr</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" t="str">
         <f>Generator!L20</f>
-        <v>echo textBoxY,340, &gt;&gt;   skills_classselectiontext18.dbr</v>
+        <v>echo textBoxY,391, &gt;&gt;   skills_classselectiontext18.dbr</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" t="str">
         <f>Generator!L21</f>
-        <v>echo textBoxY,360, &gt;&gt;   skills_classselectiontext19.dbr</v>
+        <v>echo textBoxY,414, &gt;&gt;   skills_classselectiontext19.dbr</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" t="str">
         <f>Generator!L22</f>
-        <v>echo textBoxY,380, &gt;&gt;   skills_classselectiontext20.dbr</v>
+        <v>echo textBoxY,437, &gt;&gt;   skills_classselectiontext20.dbr</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" t="str">
         <f>Generator!L23</f>
-        <v>echo textBoxY,400, &gt;&gt;   skills_classselectiontext21.dbr</v>
+        <v>echo textBoxY,460, &gt;&gt;   skills_classselectiontext21.dbr</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" t="str">
         <f>Generator!L24</f>
-        <v>echo textBoxY,420, &gt;&gt;   skills_classselectiontext22.dbr</v>
+        <v>echo textBoxY,483, &gt;&gt;   skills_classselectiontext22.dbr</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" t="str">
         <f>Generator!L25</f>
-        <v>echo textBoxY,440, &gt;&gt;   skills_classselectiontext23.dbr</v>
+        <v>echo textBoxY,506, &gt;&gt;   skills_classselectiontext23.dbr</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" t="str">
         <f>Generator!L26</f>
-        <v>echo textBoxY,460, &gt;&gt;   skills_classselectiontext24.dbr</v>
+        <v>echo textBoxY,529, &gt;&gt;   skills_classselectiontext24.dbr</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" t="str">
         <f>Generator!L27</f>
-        <v>echo textBoxY,480, &gt;&gt;   skills_classselectiontext25.dbr</v>
+        <v>echo textBoxY,552, &gt;&gt;   skills_classselectiontext25.dbr</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" t="str">
         <f>Generator!L28</f>
-        <v>echo textBoxY,500, &gt;&gt;   skills_classselectiontext26.dbr</v>
+        <v>echo textBoxY,0, &gt;&gt;   skills_classselectiontext26.dbr</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" t="str">
         <f>Generator!L29</f>
-        <v>echo textBoxY,520, &gt;&gt;   skills_classselectiontext27.dbr</v>
+        <v>echo textBoxY,23, &gt;&gt;   skills_classselectiontext27.dbr</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" t="str">
         <f>Generator!L30</f>
-        <v>echo textBoxY,540, &gt;&gt;   skills_classselectiontext28.dbr</v>
+        <v>echo textBoxY,46, &gt;&gt;   skills_classselectiontext28.dbr</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" t="str">
         <f>Generator!L31</f>
-        <v>echo textBoxY,560, &gt;&gt;   skills_classselectiontext29.dbr</v>
+        <v>echo textBoxY,69, &gt;&gt;   skills_classselectiontext29.dbr</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" t="str">
         <f>Generator!L32</f>
-        <v>echo textBoxY,580, &gt;&gt;   skills_classselectiontext30.dbr</v>
+        <v>echo textBoxY,92, &gt;&gt;   skills_classselectiontext30.dbr</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" t="str">
         <f>Generator!L33</f>
-        <v>echo textBoxY,600, &gt;&gt;   skills_classselectiontext31.dbr</v>
+        <v>echo textBoxY,115, &gt;&gt;   skills_classselectiontext31.dbr</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" t="str">
         <f>Generator!L34</f>
-        <v>echo textBoxY,620, &gt;&gt;   skills_classselectiontext32.dbr</v>
+        <v>echo textBoxY,138, &gt;&gt;   skills_classselectiontext32.dbr</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" t="str">
         <f>Generator!L35</f>
-        <v>echo textBoxY,640, &gt;&gt;   skills_classselectiontext33.dbr</v>
+        <v>echo textBoxY,161, &gt;&gt;   skills_classselectiontext33.dbr</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" t="str">
         <f>Generator!L36</f>
-        <v>echo textBoxY,0, &gt;&gt;   skills_classselectiontext34.dbr</v>
+        <v>echo textBoxY,184, &gt;&gt;   skills_classselectiontext34.dbr</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" t="str">
         <f>Generator!L37</f>
-        <v>echo textBoxY,20, &gt;&gt;   skills_classselectiontext35.dbr</v>
+        <v>echo textBoxY,207, &gt;&gt;   skills_classselectiontext35.dbr</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" t="str">
         <f>Generator!L38</f>
-        <v>echo textBoxY,40, &gt;&gt;   skills_classselectiontext36.dbr</v>
+        <v>echo textBoxY,230, &gt;&gt;   skills_classselectiontext36.dbr</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" t="str">
         <f>Generator!L39</f>
-        <v>echo textBoxY,60, &gt;&gt;   skills_classselectiontext37.dbr</v>
+        <v>echo textBoxY,253, &gt;&gt;   skills_classselectiontext37.dbr</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" t="str">
         <f>Generator!L40</f>
-        <v>echo textBoxY,80, &gt;&gt;   skills_classselectiontext38.dbr</v>
+        <v>echo textBoxY,276, &gt;&gt;   skills_classselectiontext38.dbr</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" t="str">
         <f>Generator!L41</f>
-        <v>echo textBoxY,100, &gt;&gt;   skills_classselectiontext39.dbr</v>
+        <v>echo textBoxY,299, &gt;&gt;   skills_classselectiontext39.dbr</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" t="str">
         <f>Generator!L42</f>
-        <v>echo textBoxY,120, &gt;&gt;   skills_classselectiontext40.dbr</v>
+        <v>echo textBoxY,322, &gt;&gt;   skills_classselectiontext40.dbr</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" t="str">
         <f>Generator!L43</f>
-        <v>echo textBoxY,140, &gt;&gt;   skills_classselectiontext41.dbr</v>
+        <v>echo textBoxY,345, &gt;&gt;   skills_classselectiontext41.dbr</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" t="str">
         <f>Generator!L44</f>
-        <v>echo textBoxY,160, &gt;&gt;   skills_classselectiontext42.dbr</v>
+        <v>echo textBoxY,368, &gt;&gt;   skills_classselectiontext42.dbr</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" t="str">
         <f>Generator!L45</f>
-        <v>echo textBoxY,180, &gt;&gt;   skills_classselectiontext43.dbr</v>
+        <v>echo textBoxY,391, &gt;&gt;   skills_classselectiontext43.dbr</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" t="str">
         <f>Generator!L46</f>
-        <v>echo textBoxY,200, &gt;&gt;   skills_classselectiontext44.dbr</v>
+        <v>echo textBoxY,414, &gt;&gt;   skills_classselectiontext44.dbr</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" t="str">
         <f>Generator!L47</f>
-        <v>echo textBoxY,220, &gt;&gt;   skills_classselectiontext45.dbr</v>
+        <v>echo textBoxY,437, &gt;&gt;   skills_classselectiontext45.dbr</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" t="str">
         <f>Generator!L48</f>
-        <v>echo textBoxY,240, &gt;&gt;   skills_classselectiontext46.dbr</v>
+        <v>echo textBoxY,460, &gt;&gt;   skills_classselectiontext46.dbr</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" t="str">
         <f>Generator!L49</f>
-        <v>echo textBoxY,260, &gt;&gt;   skills_classselectiontext47.dbr</v>
+        <v>echo textBoxY,483, &gt;&gt;   skills_classselectiontext47.dbr</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" t="str">
         <f>Generator!L50</f>
-        <v>echo textBoxY,280, &gt;&gt;   skills_classselectiontext48.dbr</v>
+        <v>echo textBoxY,506, &gt;&gt;   skills_classselectiontext48.dbr</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" t="str">
         <f>Generator!L51</f>
-        <v>echo textBoxY,300, &gt;&gt;   skills_classselectiontext49.dbr</v>
+        <v>echo textBoxY,529, &gt;&gt;   skills_classselectiontext49.dbr</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" t="str">
         <f>Generator!L52</f>
-        <v>echo textBoxY,320, &gt;&gt;   skills_classselectiontext50.dbr</v>
+        <v>echo textBoxY,552, &gt;&gt;   skills_classselectiontext50.dbr</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" t="str">
         <f>Generator!L53</f>
-        <v>echo textBoxY,340, &gt;&gt;   skills_classselectiontext51.dbr</v>
+        <v>echo textBoxY,575, &gt;&gt;   skills_classselectiontext51.dbr</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" t="str">
         <f>Generator!L54</f>
-        <v>echo textBoxY,360, &gt;&gt;   skills_classselectiontext52.dbr</v>
+        <v>echo textBoxY,598, &gt;&gt;   skills_classselectiontext52.dbr</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" t="str">
         <f>Generator!L55</f>
-        <v>echo textBoxY,380, &gt;&gt;   skills_classselectiontext53.dbr</v>
+        <v>echo textBoxY,621, &gt;&gt;   skills_classselectiontext53.dbr</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" t="str">
         <f>Generator!L56</f>
-        <v>echo textBoxY,400, &gt;&gt;   skills_classselectiontext54.dbr</v>
+        <v>echo textBoxY,644, &gt;&gt;   skills_classselectiontext54.dbr</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" t="str">
         <f>Generator!L57</f>
-        <v>echo textBoxY,420, &gt;&gt;   skills_classselectiontext55.dbr</v>
+        <v>echo textBoxY,667, &gt;&gt;   skills_classselectiontext55.dbr</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" t="str">
         <f>Generator!L58</f>
-        <v>echo textBoxY,440, &gt;&gt;   skills_classselectiontext56.dbr</v>
+        <v>echo textBoxY,690, &gt;&gt;   skills_classselectiontext56.dbr</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" t="str">
         <f>Generator!L59</f>
-        <v>echo textBoxY,460, &gt;&gt;   skills_classselectiontext57.dbr</v>
+        <v>echo textBoxY,713, &gt;&gt;   skills_classselectiontext57.dbr</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" t="str">
         <f>Generator!L60</f>
-        <v>echo textBoxY,480, &gt;&gt;   skills_classselectiontext58.dbr</v>
+        <v>echo textBoxY,736, &gt;&gt;   skills_classselectiontext58.dbr</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" t="str">
         <f>Generator!L61</f>
-        <v>echo textBoxY,500, &gt;&gt;   skills_classselectiontext59.dbr</v>
+        <v>echo textBoxY,759, &gt;&gt;   skills_classselectiontext59.dbr</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" t="str">
         <f>Generator!L62</f>
-        <v>echo textBoxY,520, &gt;&gt;   skills_classselectiontext60.dbr</v>
+        <v>echo textBoxY,782, &gt;&gt;   skills_classselectiontext60.dbr</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" t="str">
         <f>Generator!L63</f>
-        <v>echo textBoxY,540, &gt;&gt;   skills_classselectiontext61.dbr</v>
+        <v>echo textBoxY,805, &gt;&gt;   skills_classselectiontext61.dbr</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" t="str">
         <f>Generator!L64</f>
-        <v>echo textBoxY,560, &gt;&gt;   skills_classselectiontext62.dbr</v>
+        <v>echo textBoxY,828, &gt;&gt;   skills_classselectiontext62.dbr</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" t="str">
         <f>Generator!L65</f>
-        <v>echo textBoxY,580, &gt;&gt;   skills_classselectiontext63.dbr</v>
+        <v>echo textBoxY,851, &gt;&gt;   skills_classselectiontext63.dbr</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" t="str">
         <f>Generator!L66</f>
-        <v>echo textBoxY,600, &gt;&gt;   skills_classselectiontext64.dbr</v>
+        <v>echo textBoxY,874, &gt;&gt;   skills_classselectiontext64.dbr</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" t="str">
         <f>Generator!L67</f>
-        <v>echo textBoxY,620, &gt;&gt;   skills_classselectiontext65.dbr</v>
+        <v>echo textBoxY,897, &gt;&gt;   skills_classselectiontext65.dbr</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" t="str">
         <f>Generator!L68</f>
-        <v>echo textBoxY,640, &gt;&gt;   skills_classselectiontext66.dbr</v>
+        <v>echo textBoxY,920, &gt;&gt;   skills_classselectiontext66.dbr</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
@@ -3921,193 +3919,193 @@
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" t="str">
         <f>Generator!L70</f>
-        <v>echo textBoxY,20, &gt;&gt;   skills_classselectiontext68.dbr</v>
+        <v>echo textBoxY,23, &gt;&gt;   skills_classselectiontext68.dbr</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" t="str">
         <f>Generator!L71</f>
-        <v>echo textBoxY,40, &gt;&gt;   skills_classselectiontext69.dbr</v>
+        <v>echo textBoxY,46, &gt;&gt;   skills_classselectiontext69.dbr</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" t="str">
         <f>Generator!L72</f>
-        <v>echo textBoxY,60, &gt;&gt;   skills_classselectiontext70.dbr</v>
+        <v>echo textBoxY,69, &gt;&gt;   skills_classselectiontext70.dbr</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" t="str">
         <f>Generator!L73</f>
-        <v>echo textBoxY,80, &gt;&gt;   skills_classselectiontext71.dbr</v>
+        <v>echo textBoxY,92, &gt;&gt;   skills_classselectiontext71.dbr</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" t="str">
         <f>Generator!L74</f>
-        <v>echo textBoxY,100, &gt;&gt;   skills_classselectiontext72.dbr</v>
+        <v>echo textBoxY,115, &gt;&gt;   skills_classselectiontext72.dbr</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" t="str">
         <f>Generator!L75</f>
-        <v>echo textBoxY,120, &gt;&gt;   skills_classselectiontext73.dbr</v>
+        <v>echo textBoxY,138, &gt;&gt;   skills_classselectiontext73.dbr</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" t="str">
         <f>Generator!L76</f>
-        <v>echo textBoxY,140, &gt;&gt;   skills_classselectiontext74.dbr</v>
+        <v>echo textBoxY,161, &gt;&gt;   skills_classselectiontext74.dbr</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" t="str">
         <f>Generator!L77</f>
-        <v>echo textBoxY,160, &gt;&gt;   skills_classselectiontext75.dbr</v>
+        <v>echo textBoxY,184, &gt;&gt;   skills_classselectiontext75.dbr</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" t="str">
         <f>Generator!L78</f>
-        <v>echo textBoxY,180, &gt;&gt;   skills_classselectiontext76.dbr</v>
+        <v>echo textBoxY,207, &gt;&gt;   skills_classselectiontext76.dbr</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" t="str">
         <f>Generator!L79</f>
-        <v>echo textBoxY,200, &gt;&gt;   skills_classselectiontext77.dbr</v>
+        <v>echo textBoxY,230, &gt;&gt;   skills_classselectiontext77.dbr</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" t="str">
         <f>Generator!L80</f>
-        <v>echo textBoxY,220, &gt;&gt;   skills_classselectiontext78.dbr</v>
+        <v>echo textBoxY,253, &gt;&gt;   skills_classselectiontext78.dbr</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" t="str">
         <f>Generator!L81</f>
-        <v>echo textBoxY,240, &gt;&gt;   skills_classselectiontext79.dbr</v>
+        <v>echo textBoxY,276, &gt;&gt;   skills_classselectiontext79.dbr</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" t="str">
         <f>Generator!L82</f>
-        <v>echo textBoxY,260, &gt;&gt;   skills_classselectiontext80.dbr</v>
+        <v>echo textBoxY,299, &gt;&gt;   skills_classselectiontext80.dbr</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" t="str">
         <f>Generator!L83</f>
-        <v>echo textBoxY,280, &gt;&gt;   skills_classselectiontext81.dbr</v>
+        <v>echo textBoxY,322, &gt;&gt;   skills_classselectiontext81.dbr</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" t="str">
         <f>Generator!L84</f>
-        <v>echo textBoxY,300, &gt;&gt;   skills_classselectiontext82.dbr</v>
+        <v>echo textBoxY,345, &gt;&gt;   skills_classselectiontext82.dbr</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" t="str">
         <f>Generator!L85</f>
-        <v>echo textBoxY,320, &gt;&gt;   skills_classselectiontext83.dbr</v>
+        <v>echo textBoxY,368, &gt;&gt;   skills_classselectiontext83.dbr</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" t="str">
         <f>Generator!L86</f>
-        <v>echo textBoxY,340, &gt;&gt;   skills_classselectiontext84.dbr</v>
+        <v>echo textBoxY,391, &gt;&gt;   skills_classselectiontext84.dbr</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" t="str">
         <f>Generator!L87</f>
-        <v>echo textBoxY,360, &gt;&gt;   skills_classselectiontext85.dbr</v>
+        <v>echo textBoxY,414, &gt;&gt;   skills_classselectiontext85.dbr</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" t="str">
         <f>Generator!L88</f>
-        <v>echo textBoxY,380, &gt;&gt;   skills_classselectiontext86.dbr</v>
+        <v>echo textBoxY,437, &gt;&gt;   skills_classselectiontext86.dbr</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" t="str">
         <f>Generator!L89</f>
-        <v>echo textBoxY,400, &gt;&gt;   skills_classselectiontext87.dbr</v>
+        <v>echo textBoxY,460, &gt;&gt;   skills_classselectiontext87.dbr</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" t="str">
         <f>Generator!L90</f>
-        <v>echo textBoxY,420, &gt;&gt;   skills_classselectiontext88.dbr</v>
+        <v>echo textBoxY,483, &gt;&gt;   skills_classselectiontext88.dbr</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" t="str">
         <f>Generator!L91</f>
-        <v>echo textBoxY,440, &gt;&gt;   skills_classselectiontext89.dbr</v>
+        <v>echo textBoxY,506, &gt;&gt;   skills_classselectiontext89.dbr</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" t="str">
         <f>Generator!L92</f>
-        <v>echo textBoxY,460, &gt;&gt;   skills_classselectiontext90.dbr</v>
+        <v>echo textBoxY,529, &gt;&gt;   skills_classselectiontext90.dbr</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" t="str">
         <f>Generator!L93</f>
-        <v>echo textBoxY,480, &gt;&gt;   skills_classselectiontext91.dbr</v>
+        <v>echo textBoxY,552, &gt;&gt;   skills_classselectiontext91.dbr</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" t="str">
         <f>Generator!L94</f>
-        <v>echo textBoxY,500, &gt;&gt;   skills_classselectiontext92.dbr</v>
+        <v>echo textBoxY,575, &gt;&gt;   skills_classselectiontext92.dbr</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" t="str">
         <f>Generator!L95</f>
-        <v>echo textBoxY,520, &gt;&gt;   skills_classselectiontext93.dbr</v>
+        <v>echo textBoxY,598, &gt;&gt;   skills_classselectiontext93.dbr</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" t="str">
         <f>Generator!L96</f>
-        <v>echo textBoxY,540, &gt;&gt;   skills_classselectiontext94.dbr</v>
+        <v>echo textBoxY,621, &gt;&gt;   skills_classselectiontext94.dbr</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" t="str">
         <f>Generator!L97</f>
-        <v>echo textBoxY,560, &gt;&gt;   skills_classselectiontext95.dbr</v>
+        <v>echo textBoxY,644, &gt;&gt;   skills_classselectiontext95.dbr</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" t="str">
         <f>Generator!L98</f>
-        <v>echo textBoxY,580, &gt;&gt;   skills_classselectiontext96.dbr</v>
+        <v>echo textBoxY,667, &gt;&gt;   skills_classselectiontext96.dbr</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" t="str">
         <f>Generator!L99</f>
-        <v>echo textBoxY,600, &gt;&gt;   skills_classselectiontext97.dbr</v>
+        <v>echo textBoxY,690, &gt;&gt;   skills_classselectiontext97.dbr</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" t="str">
         <f>Generator!L100</f>
-        <v>echo textBoxY,620, &gt;&gt;   skills_classselectiontext98.dbr</v>
+        <v>echo textBoxY,713, &gt;&gt;   skills_classselectiontext98.dbr</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" t="str">
         <f>Generator!L101</f>
-        <v>echo textBoxY,640, &gt;&gt;   skills_classselectiontext99.dbr</v>
+        <v>echo textBoxY,736, &gt;&gt;   skills_classselectiontext99.dbr</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
@@ -4714,8 +4712,8 @@
   <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q101" sqref="Q33:Q101"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4857,8 +4855,8 @@
         <v>-68</v>
       </c>
       <c r="E4" s="1">
-        <f>E3+20</f>
-        <v>20</v>
+        <f>E3+23</f>
+        <v>23</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ref="F4:F67" si="3">D4</f>
@@ -4866,7 +4864,7 @@
       </c>
       <c r="G4" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H4" s="6" t="str">
         <f t="shared" ref="H4:H67" si="4">"tagSkillClassName"&amp;A4</f>
@@ -4886,7 +4884,7 @@
       </c>
       <c r="L4" s="5" t="str">
         <f t="shared" ref="L4:L67" si="8">"echo textBoxY,"&amp;G4&amp;", &gt;&gt;   skills_classselectiontext"&amp;A4&amp;".dbr"</f>
-        <v>echo textBoxY,20, &gt;&gt;   skills_classselectiontext02.dbr</v>
+        <v>echo textBoxY,23, &gt;&gt;   skills_classselectiontext02.dbr</v>
       </c>
       <c r="M4" s="5" t="str">
         <f t="shared" ref="M4:M67" si="9">"echo textTag,tagSkillClassName"&amp;A4&amp;", &gt;&gt;   skills_classselectiontext"&amp;A4&amp;".dbr"</f>
@@ -4910,8 +4908,8 @@
         <v>-68</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E68" si="11">E4+20</f>
-        <v>40</v>
+        <f t="shared" ref="E5:E27" si="11">E4+23</f>
+        <v>46</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="3"/>
@@ -4919,7 +4917,7 @@
       </c>
       <c r="G5" s="6">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H5" s="6" t="str">
         <f t="shared" si="4"/>
@@ -4931,7 +4929,7 @@
       </c>
       <c r="J5" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,20, &gt;&gt;  skills_classselectionbutton02.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,23, &gt;&gt;  skills_classselectionbutton02.dbr </v>
       </c>
       <c r="K5" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4939,7 +4937,7 @@
       </c>
       <c r="L5" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,40, &gt;&gt;   skills_classselectiontext03.dbr</v>
+        <v>echo textBoxY,46, &gt;&gt;   skills_classselectiontext03.dbr</v>
       </c>
       <c r="M5" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4964,7 +4962,7 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="3"/>
@@ -4972,7 +4970,7 @@
       </c>
       <c r="G6" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H6" s="6" t="str">
         <f t="shared" si="4"/>
@@ -4984,7 +4982,7 @@
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,40, &gt;&gt;  skills_classselectionbutton03.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,46, &gt;&gt;  skills_classselectionbutton03.dbr </v>
       </c>
       <c r="K6" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4992,7 +4990,7 @@
       </c>
       <c r="L6" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,60, &gt;&gt;   skills_classselectiontext04.dbr</v>
+        <v>echo textBoxY,69, &gt;&gt;   skills_classselectiontext04.dbr</v>
       </c>
       <c r="M6" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5017,7 +5015,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="11"/>
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="3"/>
@@ -5025,7 +5023,7 @@
       </c>
       <c r="G7" s="6">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H7" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5037,7 +5035,7 @@
       </c>
       <c r="J7" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,60, &gt;&gt;  skills_classselectionbutton04.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,69, &gt;&gt;  skills_classselectionbutton04.dbr </v>
       </c>
       <c r="K7" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5045,7 +5043,7 @@
       </c>
       <c r="L7" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,80, &gt;&gt;   skills_classselectiontext05.dbr</v>
+        <v>echo textBoxY,92, &gt;&gt;   skills_classselectiontext05.dbr</v>
       </c>
       <c r="M7" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5070,7 +5068,7 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="11"/>
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="3"/>
@@ -5078,7 +5076,7 @@
       </c>
       <c r="G8" s="6">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="H8" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5090,7 +5088,7 @@
       </c>
       <c r="J8" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,80, &gt;&gt;  skills_classselectionbutton05.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,92, &gt;&gt;  skills_classselectionbutton05.dbr </v>
       </c>
       <c r="K8" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5098,7 +5096,7 @@
       </c>
       <c r="L8" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,100, &gt;&gt;   skills_classselectiontext06.dbr</v>
+        <v>echo textBoxY,115, &gt;&gt;   skills_classselectiontext06.dbr</v>
       </c>
       <c r="M8" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5123,7 +5121,7 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" si="11"/>
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="3"/>
@@ -5131,7 +5129,7 @@
       </c>
       <c r="G9" s="6">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="H9" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5143,7 +5141,7 @@
       </c>
       <c r="J9" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,100, &gt;&gt;  skills_classselectionbutton06.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,115, &gt;&gt;  skills_classselectionbutton06.dbr </v>
       </c>
       <c r="K9" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5151,7 +5149,7 @@
       </c>
       <c r="L9" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,120, &gt;&gt;   skills_classselectiontext07.dbr</v>
+        <v>echo textBoxY,138, &gt;&gt;   skills_classselectiontext07.dbr</v>
       </c>
       <c r="M9" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5176,7 +5174,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="11"/>
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="3"/>
@@ -5184,7 +5182,7 @@
       </c>
       <c r="G10" s="6">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="H10" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5196,7 +5194,7 @@
       </c>
       <c r="J10" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,120, &gt;&gt;  skills_classselectionbutton07.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,138, &gt;&gt;  skills_classselectionbutton07.dbr </v>
       </c>
       <c r="K10" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5204,7 +5202,7 @@
       </c>
       <c r="L10" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,140, &gt;&gt;   skills_classselectiontext08.dbr</v>
+        <v>echo textBoxY,161, &gt;&gt;   skills_classselectiontext08.dbr</v>
       </c>
       <c r="M10" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5229,7 +5227,7 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" si="11"/>
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="3"/>
@@ -5237,7 +5235,7 @@
       </c>
       <c r="G11" s="6">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="H11" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5249,7 +5247,7 @@
       </c>
       <c r="J11" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,140, &gt;&gt;  skills_classselectionbutton08.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,161, &gt;&gt;  skills_classselectionbutton08.dbr </v>
       </c>
       <c r="K11" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5257,7 +5255,7 @@
       </c>
       <c r="L11" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,160, &gt;&gt;   skills_classselectiontext09.dbr</v>
+        <v>echo textBoxY,184, &gt;&gt;   skills_classselectiontext09.dbr</v>
       </c>
       <c r="M11" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5282,7 +5280,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="11"/>
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="3"/>
@@ -5290,7 +5288,7 @@
       </c>
       <c r="G12" s="6">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="H12" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5302,7 +5300,7 @@
       </c>
       <c r="J12" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,160, &gt;&gt;  skills_classselectionbutton09.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,184, &gt;&gt;  skills_classselectionbutton09.dbr </v>
       </c>
       <c r="K12" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5310,7 +5308,7 @@
       </c>
       <c r="L12" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,180, &gt;&gt;   skills_classselectiontext10.dbr</v>
+        <v>echo textBoxY,207, &gt;&gt;   skills_classselectiontext10.dbr</v>
       </c>
       <c r="M12" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5336,7 +5334,7 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="11"/>
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="3"/>
@@ -5344,7 +5342,7 @@
       </c>
       <c r="G13" s="6">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H13" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5356,7 +5354,7 @@
       </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,180, &gt;&gt;  skills_classselectionbutton10.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,207, &gt;&gt;  skills_classselectionbutton10.dbr </v>
       </c>
       <c r="K13" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5364,7 +5362,7 @@
       </c>
       <c r="L13" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,200, &gt;&gt;   skills_classselectiontext11.dbr</v>
+        <v>echo textBoxY,230, &gt;&gt;   skills_classselectiontext11.dbr</v>
       </c>
       <c r="M13" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5390,7 +5388,7 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="11"/>
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="3"/>
@@ -5398,7 +5396,7 @@
       </c>
       <c r="G14" s="6">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="H14" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5410,7 +5408,7 @@
       </c>
       <c r="J14" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,200, &gt;&gt;  skills_classselectionbutton11.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,230, &gt;&gt;  skills_classselectionbutton11.dbr </v>
       </c>
       <c r="K14" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5418,7 +5416,7 @@
       </c>
       <c r="L14" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,220, &gt;&gt;   skills_classselectiontext12.dbr</v>
+        <v>echo textBoxY,253, &gt;&gt;   skills_classselectiontext12.dbr</v>
       </c>
       <c r="M14" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5444,7 +5442,7 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" si="11"/>
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="3"/>
@@ -5452,7 +5450,7 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H15" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5464,7 +5462,7 @@
       </c>
       <c r="J15" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,220, &gt;&gt;  skills_classselectionbutton12.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,253, &gt;&gt;  skills_classselectionbutton12.dbr </v>
       </c>
       <c r="K15" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5472,7 +5470,7 @@
       </c>
       <c r="L15" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,240, &gt;&gt;   skills_classselectiontext13.dbr</v>
+        <v>echo textBoxY,276, &gt;&gt;   skills_classselectiontext13.dbr</v>
       </c>
       <c r="M15" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5498,7 +5496,7 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="11"/>
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="3"/>
@@ -5506,7 +5504,7 @@
       </c>
       <c r="G16" s="6">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="H16" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5518,7 +5516,7 @@
       </c>
       <c r="J16" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,240, &gt;&gt;  skills_classselectionbutton13.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,276, &gt;&gt;  skills_classselectionbutton13.dbr </v>
       </c>
       <c r="K16" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5526,7 +5524,7 @@
       </c>
       <c r="L16" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,260, &gt;&gt;   skills_classselectiontext14.dbr</v>
+        <v>echo textBoxY,299, &gt;&gt;   skills_classselectiontext14.dbr</v>
       </c>
       <c r="M16" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5552,7 +5550,7 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" si="11"/>
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="3"/>
@@ -5560,7 +5558,7 @@
       </c>
       <c r="G17" s="6">
         <f t="shared" si="2"/>
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="H17" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5572,7 +5570,7 @@
       </c>
       <c r="J17" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,260, &gt;&gt;  skills_classselectionbutton14.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,299, &gt;&gt;  skills_classselectionbutton14.dbr </v>
       </c>
       <c r="K17" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5580,7 +5578,7 @@
       </c>
       <c r="L17" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,280, &gt;&gt;   skills_classselectiontext15.dbr</v>
+        <v>echo textBoxY,322, &gt;&gt;   skills_classselectiontext15.dbr</v>
       </c>
       <c r="M17" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5606,7 +5604,7 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="11"/>
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="3"/>
@@ -5614,7 +5612,7 @@
       </c>
       <c r="G18" s="6">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="H18" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5626,7 +5624,7 @@
       </c>
       <c r="J18" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,280, &gt;&gt;  skills_classselectionbutton15.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,322, &gt;&gt;  skills_classselectionbutton15.dbr </v>
       </c>
       <c r="K18" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5634,7 +5632,7 @@
       </c>
       <c r="L18" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,300, &gt;&gt;   skills_classselectiontext16.dbr</v>
+        <v>echo textBoxY,345, &gt;&gt;   skills_classselectiontext16.dbr</v>
       </c>
       <c r="M18" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5660,7 +5658,7 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="11"/>
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="3"/>
@@ -5668,7 +5666,7 @@
       </c>
       <c r="G19" s="6">
         <f t="shared" si="2"/>
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="H19" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5680,7 +5678,7 @@
       </c>
       <c r="J19" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,300, &gt;&gt;  skills_classselectionbutton16.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,345, &gt;&gt;  skills_classselectionbutton16.dbr </v>
       </c>
       <c r="K19" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5688,7 +5686,7 @@
       </c>
       <c r="L19" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,320, &gt;&gt;   skills_classselectiontext17.dbr</v>
+        <v>echo textBoxY,368, &gt;&gt;   skills_classselectiontext17.dbr</v>
       </c>
       <c r="M19" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5714,7 +5712,7 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="11"/>
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="3"/>
@@ -5722,7 +5720,7 @@
       </c>
       <c r="G20" s="6">
         <f t="shared" si="2"/>
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="H20" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5734,7 +5732,7 @@
       </c>
       <c r="J20" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,320, &gt;&gt;  skills_classselectionbutton17.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,368, &gt;&gt;  skills_classselectionbutton17.dbr </v>
       </c>
       <c r="K20" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5742,7 +5740,7 @@
       </c>
       <c r="L20" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,340, &gt;&gt;   skills_classselectiontext18.dbr</v>
+        <v>echo textBoxY,391, &gt;&gt;   skills_classselectiontext18.dbr</v>
       </c>
       <c r="M20" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5768,7 +5766,7 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" si="11"/>
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="3"/>
@@ -5776,7 +5774,7 @@
       </c>
       <c r="G21" s="6">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="H21" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5788,7 +5786,7 @@
       </c>
       <c r="J21" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,340, &gt;&gt;  skills_classselectionbutton18.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,391, &gt;&gt;  skills_classselectionbutton18.dbr </v>
       </c>
       <c r="K21" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5796,7 +5794,7 @@
       </c>
       <c r="L21" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,360, &gt;&gt;   skills_classselectiontext19.dbr</v>
+        <v>echo textBoxY,414, &gt;&gt;   skills_classselectiontext19.dbr</v>
       </c>
       <c r="M21" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5822,7 +5820,7 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="11"/>
-        <v>380</v>
+        <v>437</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="3"/>
@@ -5830,7 +5828,7 @@
       </c>
       <c r="G22" s="6">
         <f t="shared" si="2"/>
-        <v>380</v>
+        <v>437</v>
       </c>
       <c r="H22" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5842,7 +5840,7 @@
       </c>
       <c r="J22" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,360, &gt;&gt;  skills_classselectionbutton19.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,414, &gt;&gt;  skills_classselectionbutton19.dbr </v>
       </c>
       <c r="K22" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5850,7 +5848,7 @@
       </c>
       <c r="L22" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,380, &gt;&gt;   skills_classselectiontext20.dbr</v>
+        <v>echo textBoxY,437, &gt;&gt;   skills_classselectiontext20.dbr</v>
       </c>
       <c r="M22" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5876,7 +5874,7 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="11"/>
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="3"/>
@@ -5884,7 +5882,7 @@
       </c>
       <c r="G23" s="6">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="H23" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5896,7 +5894,7 @@
       </c>
       <c r="J23" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,380, &gt;&gt;  skills_classselectionbutton20.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,437, &gt;&gt;  skills_classselectionbutton20.dbr </v>
       </c>
       <c r="K23" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5904,7 +5902,7 @@
       </c>
       <c r="L23" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,400, &gt;&gt;   skills_classselectiontext21.dbr</v>
+        <v>echo textBoxY,460, &gt;&gt;   skills_classselectiontext21.dbr</v>
       </c>
       <c r="M23" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5930,7 +5928,7 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" si="11"/>
-        <v>420</v>
+        <v>483</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="3"/>
@@ -5938,7 +5936,7 @@
       </c>
       <c r="G24" s="6">
         <f t="shared" si="2"/>
-        <v>420</v>
+        <v>483</v>
       </c>
       <c r="H24" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5950,7 +5948,7 @@
       </c>
       <c r="J24" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,400, &gt;&gt;  skills_classselectionbutton21.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,460, &gt;&gt;  skills_classselectionbutton21.dbr </v>
       </c>
       <c r="K24" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5958,7 +5956,7 @@
       </c>
       <c r="L24" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,420, &gt;&gt;   skills_classselectiontext22.dbr</v>
+        <v>echo textBoxY,483, &gt;&gt;   skills_classselectiontext22.dbr</v>
       </c>
       <c r="M24" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5984,7 +5982,7 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" si="11"/>
-        <v>440</v>
+        <v>506</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="3"/>
@@ -5992,7 +5990,7 @@
       </c>
       <c r="G25" s="6">
         <f t="shared" si="2"/>
-        <v>440</v>
+        <v>506</v>
       </c>
       <c r="H25" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6004,7 +6002,7 @@
       </c>
       <c r="J25" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,420, &gt;&gt;  skills_classselectionbutton22.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,483, &gt;&gt;  skills_classselectionbutton22.dbr </v>
       </c>
       <c r="K25" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6012,7 +6010,7 @@
       </c>
       <c r="L25" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,440, &gt;&gt;   skills_classselectiontext23.dbr</v>
+        <v>echo textBoxY,506, &gt;&gt;   skills_classselectiontext23.dbr</v>
       </c>
       <c r="M25" s="5" t="str">
         <f t="shared" si="9"/>
@@ -6038,7 +6036,7 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="11"/>
-        <v>460</v>
+        <v>529</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="3"/>
@@ -6046,7 +6044,7 @@
       </c>
       <c r="G26" s="6">
         <f t="shared" si="2"/>
-        <v>460</v>
+        <v>529</v>
       </c>
       <c r="H26" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6058,7 +6056,7 @@
       </c>
       <c r="J26" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,440, &gt;&gt;  skills_classselectionbutton23.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,506, &gt;&gt;  skills_classselectionbutton23.dbr </v>
       </c>
       <c r="K26" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6066,7 +6064,7 @@
       </c>
       <c r="L26" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,460, &gt;&gt;   skills_classselectiontext24.dbr</v>
+        <v>echo textBoxY,529, &gt;&gt;   skills_classselectiontext24.dbr</v>
       </c>
       <c r="M26" s="5" t="str">
         <f t="shared" si="9"/>
@@ -6092,7 +6090,7 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" si="11"/>
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="3"/>
@@ -6100,7 +6098,7 @@
       </c>
       <c r="G27" s="6">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="H27" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6112,7 +6110,7 @@
       </c>
       <c r="J27" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,460, &gt;&gt;  skills_classselectionbutton24.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,529, &gt;&gt;  skills_classselectionbutton24.dbr </v>
       </c>
       <c r="K27" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6120,7 +6118,7 @@
       </c>
       <c r="L27" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,480, &gt;&gt;   skills_classselectiontext25.dbr</v>
+        <v>echo textBoxY,552, &gt;&gt;   skills_classselectiontext25.dbr</v>
       </c>
       <c r="M27" s="5" t="str">
         <f t="shared" si="9"/>
@@ -6141,20 +6139,18 @@
         <v>copy sst.dbr skills_classselectiontext26.dbr /y</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="10"/>
-        <v>-68</v>
+        <v>750</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="11"/>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="3"/>
-        <v>-68</v>
+        <v>750</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H28" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6162,19 +6158,19 @@
       </c>
       <c r="I28" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">echo bitmapPositionX,-68, &gt;&gt;  skills_classselectionbutton26.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionX,750, &gt;&gt;  skills_classselectionbutton26.dbr </v>
       </c>
       <c r="J28" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,480, &gt;&gt;  skills_classselectionbutton25.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,552, &gt;&gt;  skills_classselectionbutton25.dbr </v>
       </c>
       <c r="K28" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>echo textBoxX,-68, &gt;&gt;   skills_classselectiontext26.dbr</v>
+        <v>echo textBoxX,750, &gt;&gt;   skills_classselectiontext26.dbr</v>
       </c>
       <c r="L28" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,500, &gt;&gt;   skills_classselectiontext26.dbr</v>
+        <v>echo textBoxY,0, &gt;&gt;   skills_classselectiontext26.dbr</v>
       </c>
       <c r="M28" s="5" t="str">
         <f t="shared" si="9"/>
@@ -6196,19 +6192,19 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="10"/>
-        <v>-68</v>
+        <v>750</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="11"/>
-        <v>520</v>
+        <f>E28+23</f>
+        <v>23</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="3"/>
-        <v>-68</v>
+        <v>750</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="2"/>
-        <v>520</v>
+        <v>23</v>
       </c>
       <c r="H29" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6216,19 +6212,19 @@
       </c>
       <c r="I29" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">echo bitmapPositionX,-68, &gt;&gt;  skills_classselectionbutton27.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionX,750, &gt;&gt;  skills_classselectionbutton27.dbr </v>
       </c>
       <c r="J29" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,500, &gt;&gt;  skills_classselectionbutton26.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,0, &gt;&gt;  skills_classselectionbutton26.dbr </v>
       </c>
       <c r="K29" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>echo textBoxX,-68, &gt;&gt;   skills_classselectiontext27.dbr</v>
+        <v>echo textBoxX,750, &gt;&gt;   skills_classselectiontext27.dbr</v>
       </c>
       <c r="L29" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,520, &gt;&gt;   skills_classselectiontext27.dbr</v>
+        <v>echo textBoxY,23, &gt;&gt;   skills_classselectiontext27.dbr</v>
       </c>
       <c r="M29" s="5" t="str">
         <f t="shared" si="9"/>
@@ -6250,19 +6246,19 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="10"/>
-        <v>-68</v>
+        <v>750</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="11"/>
-        <v>540</v>
+        <f t="shared" ref="E30:E68" si="13">E29+23</f>
+        <v>46</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="3"/>
-        <v>-68</v>
+        <v>750</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="2"/>
-        <v>540</v>
+        <v>46</v>
       </c>
       <c r="H30" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6270,19 +6266,19 @@
       </c>
       <c r="I30" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">echo bitmapPositionX,-68, &gt;&gt;  skills_classselectionbutton28.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionX,750, &gt;&gt;  skills_classselectionbutton28.dbr </v>
       </c>
       <c r="J30" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,520, &gt;&gt;  skills_classselectionbutton27.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,23, &gt;&gt;  skills_classselectionbutton27.dbr </v>
       </c>
       <c r="K30" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>echo textBoxX,-68, &gt;&gt;   skills_classselectiontext28.dbr</v>
+        <v>echo textBoxX,750, &gt;&gt;   skills_classselectiontext28.dbr</v>
       </c>
       <c r="L30" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,540, &gt;&gt;   skills_classselectiontext28.dbr</v>
+        <v>echo textBoxY,46, &gt;&gt;   skills_classselectiontext28.dbr</v>
       </c>
       <c r="M30" s="5" t="str">
         <f t="shared" si="9"/>
@@ -6304,19 +6300,19 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="10"/>
-        <v>-68</v>
+        <v>750</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="11"/>
-        <v>560</v>
+        <f t="shared" si="13"/>
+        <v>69</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="3"/>
-        <v>-68</v>
+        <v>750</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="2"/>
-        <v>560</v>
+        <v>69</v>
       </c>
       <c r="H31" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6324,19 +6320,19 @@
       </c>
       <c r="I31" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">echo bitmapPositionX,-68, &gt;&gt;  skills_classselectionbutton29.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionX,750, &gt;&gt;  skills_classselectionbutton29.dbr </v>
       </c>
       <c r="J31" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,540, &gt;&gt;  skills_classselectionbutton28.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,46, &gt;&gt;  skills_classselectionbutton28.dbr </v>
       </c>
       <c r="K31" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>echo textBoxX,-68, &gt;&gt;   skills_classselectiontext29.dbr</v>
+        <v>echo textBoxX,750, &gt;&gt;   skills_classselectiontext29.dbr</v>
       </c>
       <c r="L31" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,560, &gt;&gt;   skills_classselectiontext29.dbr</v>
+        <v>echo textBoxY,69, &gt;&gt;   skills_classselectiontext29.dbr</v>
       </c>
       <c r="M31" s="5" t="str">
         <f t="shared" si="9"/>
@@ -6358,19 +6354,19 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="10"/>
-        <v>-68</v>
+        <v>750</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="11"/>
-        <v>580</v>
+        <f t="shared" si="13"/>
+        <v>92</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" si="3"/>
-        <v>-68</v>
+        <v>750</v>
       </c>
       <c r="G32" s="6">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>92</v>
       </c>
       <c r="H32" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6378,19 +6374,19 @@
       </c>
       <c r="I32" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">echo bitmapPositionX,-68, &gt;&gt;  skills_classselectionbutton30.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionX,750, &gt;&gt;  skills_classselectionbutton30.dbr </v>
       </c>
       <c r="J32" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,560, &gt;&gt;  skills_classselectionbutton29.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,69, &gt;&gt;  skills_classselectionbutton29.dbr </v>
       </c>
       <c r="K32" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>echo textBoxX,-68, &gt;&gt;   skills_classselectiontext30.dbr</v>
+        <v>echo textBoxX,750, &gt;&gt;   skills_classselectiontext30.dbr</v>
       </c>
       <c r="L32" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,580, &gt;&gt;   skills_classselectiontext30.dbr</v>
+        <v>echo textBoxY,92, &gt;&gt;   skills_classselectiontext30.dbr</v>
       </c>
       <c r="M32" s="5" t="str">
         <f t="shared" si="9"/>
@@ -6412,19 +6408,19 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" si="10"/>
-        <v>-68</v>
+        <v>750</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="11"/>
-        <v>600</v>
+        <f t="shared" si="13"/>
+        <v>115</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" si="3"/>
-        <v>-68</v>
+        <v>750</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>115</v>
       </c>
       <c r="H33" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6432,19 +6428,19 @@
       </c>
       <c r="I33" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">echo bitmapPositionX,-68, &gt;&gt;  skills_classselectionbutton31.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionX,750, &gt;&gt;  skills_classselectionbutton31.dbr </v>
       </c>
       <c r="J33" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,580, &gt;&gt;  skills_classselectionbutton30.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,92, &gt;&gt;  skills_classselectionbutton30.dbr </v>
       </c>
       <c r="K33" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>echo textBoxX,-68, &gt;&gt;   skills_classselectiontext31.dbr</v>
+        <v>echo textBoxX,750, &gt;&gt;   skills_classselectiontext31.dbr</v>
       </c>
       <c r="L33" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,600, &gt;&gt;   skills_classselectiontext31.dbr</v>
+        <v>echo textBoxY,115, &gt;&gt;   skills_classselectiontext31.dbr</v>
       </c>
       <c r="M33" s="5" t="str">
         <f t="shared" si="9"/>
@@ -6481,19 +6477,19 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="10"/>
-        <v>-68</v>
+        <v>750</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="11"/>
-        <v>620</v>
+        <f t="shared" si="13"/>
+        <v>138</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="3"/>
-        <v>-68</v>
+        <v>750</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="2"/>
-        <v>620</v>
+        <v>138</v>
       </c>
       <c r="H34" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6501,37 +6497,37 @@
       </c>
       <c r="I34" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">echo bitmapPositionX,-68, &gt;&gt;  skills_classselectionbutton32.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionX,750, &gt;&gt;  skills_classselectionbutton32.dbr </v>
       </c>
       <c r="J34" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,600, &gt;&gt;  skills_classselectionbutton31.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,115, &gt;&gt;  skills_classselectionbutton31.dbr </v>
       </c>
       <c r="K34" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>echo textBoxX,-68, &gt;&gt;   skills_classselectiontext32.dbr</v>
+        <v>echo textBoxX,750, &gt;&gt;   skills_classselectiontext32.dbr</v>
       </c>
       <c r="L34" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,620, &gt;&gt;   skills_classselectiontext32.dbr</v>
+        <v>echo textBoxY,138, &gt;&gt;   skills_classselectiontext32.dbr</v>
       </c>
       <c r="M34" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName32, &gt;&gt;   skills_classselectiontext32.dbr</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" ref="N34:N97" si="13">";records/ui/skills/classselection/skills_classselectionbutton"&amp;A34&amp;".dbr"</f>
+        <f t="shared" ref="N34:N97" si="14">";records/ui/skills/classselection/skills_classselectionbutton"&amp;A34&amp;".dbr"</f>
         <v>;records/ui/skills/classselection/skills_classselectionbutton32.dbr</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" ref="O34:O97" si="14">";records/ui/skills/classselection/skills_classselectiontext"&amp;A34&amp;".dbr"</f>
+        <f t="shared" ref="O34:O97" si="15">";records/ui/skills/classselection/skills_classselectiontext"&amp;A34&amp;".dbr"</f>
         <v>;records/ui/skills/classselection/skills_classselectiontext32.dbr</v>
       </c>
       <c r="P34" t="s">
         <v>47</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" ref="Q34:Q97" si="15">";tagSkillClassDescriptionPH"&amp;A34</f>
+        <f t="shared" ref="Q34:Q97" si="16">";tagSkillClassDescriptionPH"&amp;A34</f>
         <v>;tagSkillClassDescriptionPH32</v>
       </c>
     </row>
@@ -6550,19 +6546,19 @@
       </c>
       <c r="D35" s="1">
         <f t="shared" si="10"/>
-        <v>-68</v>
+        <v>750</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="11"/>
-        <v>640</v>
+        <f t="shared" si="13"/>
+        <v>161</v>
       </c>
       <c r="F35" s="6">
         <f t="shared" si="3"/>
-        <v>-68</v>
+        <v>750</v>
       </c>
       <c r="G35" s="6">
         <f t="shared" si="2"/>
-        <v>640</v>
+        <v>161</v>
       </c>
       <c r="H35" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6570,37 +6566,37 @@
       </c>
       <c r="I35" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">echo bitmapPositionX,-68, &gt;&gt;  skills_classselectionbutton33.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionX,750, &gt;&gt;  skills_classselectionbutton33.dbr </v>
       </c>
       <c r="J35" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,620, &gt;&gt;  skills_classselectionbutton32.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,138, &gt;&gt;  skills_classselectionbutton32.dbr </v>
       </c>
       <c r="K35" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>echo textBoxX,-68, &gt;&gt;   skills_classselectiontext33.dbr</v>
+        <v>echo textBoxX,750, &gt;&gt;   skills_classselectiontext33.dbr</v>
       </c>
       <c r="L35" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,640, &gt;&gt;   skills_classselectiontext33.dbr</v>
+        <v>echo textBoxY,161, &gt;&gt;   skills_classselectiontext33.dbr</v>
       </c>
       <c r="M35" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName33, &gt;&gt;   skills_classselectiontext33.dbr</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton33.dbr</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext33.dbr</v>
       </c>
       <c r="P35" t="s">
         <v>47</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH33</v>
       </c>
     </row>
@@ -6621,7 +6617,8 @@
         <v>750</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>184</v>
       </c>
       <c r="F36" s="6">
         <f t="shared" si="3"/>
@@ -6629,7 +6626,7 @@
       </c>
       <c r="G36" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="H36" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6641,7 +6638,7 @@
       </c>
       <c r="J36" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,640, &gt;&gt;  skills_classselectionbutton33.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,161, &gt;&gt;  skills_classselectionbutton33.dbr </v>
       </c>
       <c r="K36" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6649,25 +6646,25 @@
       </c>
       <c r="L36" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,0, &gt;&gt;   skills_classselectiontext34.dbr</v>
+        <v>echo textBoxY,184, &gt;&gt;   skills_classselectiontext34.dbr</v>
       </c>
       <c r="M36" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName34, &gt;&gt;   skills_classselectiontext34.dbr</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton34.dbr</v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext34.dbr</v>
       </c>
       <c r="P36" t="s">
         <v>47</v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH34</v>
       </c>
     </row>
@@ -6689,8 +6686,8 @@
         <v>750</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="11"/>
-        <v>20</v>
+        <f t="shared" si="13"/>
+        <v>207</v>
       </c>
       <c r="F37" s="6">
         <f t="shared" si="3"/>
@@ -6698,7 +6695,7 @@
       </c>
       <c r="G37" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="H37" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6710,7 +6707,7 @@
       </c>
       <c r="J37" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,0, &gt;&gt;  skills_classselectionbutton34.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,184, &gt;&gt;  skills_classselectionbutton34.dbr </v>
       </c>
       <c r="K37" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6718,25 +6715,25 @@
       </c>
       <c r="L37" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,20, &gt;&gt;   skills_classselectiontext35.dbr</v>
+        <v>echo textBoxY,207, &gt;&gt;   skills_classselectiontext35.dbr</v>
       </c>
       <c r="M37" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName35, &gt;&gt;   skills_classselectiontext35.dbr</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton35.dbr</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext35.dbr</v>
       </c>
       <c r="P37" t="s">
         <v>47</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH35</v>
       </c>
     </row>
@@ -6758,8 +6755,8 @@
         <v>750</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="11"/>
-        <v>40</v>
+        <f t="shared" si="13"/>
+        <v>230</v>
       </c>
       <c r="F38" s="6">
         <f t="shared" si="3"/>
@@ -6767,7 +6764,7 @@
       </c>
       <c r="G38" s="6">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="H38" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6779,7 +6776,7 @@
       </c>
       <c r="J38" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,20, &gt;&gt;  skills_classselectionbutton35.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,207, &gt;&gt;  skills_classselectionbutton35.dbr </v>
       </c>
       <c r="K38" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6787,25 +6784,25 @@
       </c>
       <c r="L38" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,40, &gt;&gt;   skills_classselectiontext36.dbr</v>
+        <v>echo textBoxY,230, &gt;&gt;   skills_classselectiontext36.dbr</v>
       </c>
       <c r="M38" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName36, &gt;&gt;   skills_classselectiontext36.dbr</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton36.dbr</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext36.dbr</v>
       </c>
       <c r="P38" t="s">
         <v>47</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH36</v>
       </c>
     </row>
@@ -6827,8 +6824,8 @@
         <v>750</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="11"/>
-        <v>60</v>
+        <f t="shared" si="13"/>
+        <v>253</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" si="3"/>
@@ -6836,7 +6833,7 @@
       </c>
       <c r="G39" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>253</v>
       </c>
       <c r="H39" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6848,7 +6845,7 @@
       </c>
       <c r="J39" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,40, &gt;&gt;  skills_classselectionbutton36.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,230, &gt;&gt;  skills_classselectionbutton36.dbr </v>
       </c>
       <c r="K39" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6856,25 +6853,25 @@
       </c>
       <c r="L39" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,60, &gt;&gt;   skills_classselectiontext37.dbr</v>
+        <v>echo textBoxY,253, &gt;&gt;   skills_classselectiontext37.dbr</v>
       </c>
       <c r="M39" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName37, &gt;&gt;   skills_classselectiontext37.dbr</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton37.dbr</v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext37.dbr</v>
       </c>
       <c r="P39" t="s">
         <v>47</v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH37</v>
       </c>
     </row>
@@ -6896,8 +6893,8 @@
         <v>750</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="11"/>
-        <v>80</v>
+        <f t="shared" si="13"/>
+        <v>276</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" si="3"/>
@@ -6905,7 +6902,7 @@
       </c>
       <c r="G40" s="6">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="H40" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6917,7 +6914,7 @@
       </c>
       <c r="J40" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,60, &gt;&gt;  skills_classselectionbutton37.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,253, &gt;&gt;  skills_classselectionbutton37.dbr </v>
       </c>
       <c r="K40" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6925,25 +6922,25 @@
       </c>
       <c r="L40" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,80, &gt;&gt;   skills_classselectiontext38.dbr</v>
+        <v>echo textBoxY,276, &gt;&gt;   skills_classselectiontext38.dbr</v>
       </c>
       <c r="M40" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName38, &gt;&gt;   skills_classselectiontext38.dbr</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton38.dbr</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext38.dbr</v>
       </c>
       <c r="P40" t="s">
         <v>47</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH38</v>
       </c>
     </row>
@@ -6965,8 +6962,8 @@
         <v>750</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="11"/>
-        <v>100</v>
+        <f t="shared" si="13"/>
+        <v>299</v>
       </c>
       <c r="F41" s="6">
         <f t="shared" si="3"/>
@@ -6974,7 +6971,7 @@
       </c>
       <c r="G41" s="6">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="H41" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6986,7 +6983,7 @@
       </c>
       <c r="J41" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,80, &gt;&gt;  skills_classselectionbutton38.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,276, &gt;&gt;  skills_classselectionbutton38.dbr </v>
       </c>
       <c r="K41" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6994,25 +6991,25 @@
       </c>
       <c r="L41" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,100, &gt;&gt;   skills_classselectiontext39.dbr</v>
+        <v>echo textBoxY,299, &gt;&gt;   skills_classselectiontext39.dbr</v>
       </c>
       <c r="M41" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName39, &gt;&gt;   skills_classselectiontext39.dbr</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton39.dbr</v>
       </c>
       <c r="O41" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext39.dbr</v>
       </c>
       <c r="P41" t="s">
         <v>47</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH39</v>
       </c>
     </row>
@@ -7034,8 +7031,8 @@
         <v>750</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="11"/>
-        <v>120</v>
+        <f t="shared" si="13"/>
+        <v>322</v>
       </c>
       <c r="F42" s="6">
         <f t="shared" si="3"/>
@@ -7043,7 +7040,7 @@
       </c>
       <c r="G42" s="6">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>322</v>
       </c>
       <c r="H42" s="6" t="str">
         <f t="shared" si="4"/>
@@ -7055,7 +7052,7 @@
       </c>
       <c r="J42" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,100, &gt;&gt;  skills_classselectionbutton39.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,299, &gt;&gt;  skills_classselectionbutton39.dbr </v>
       </c>
       <c r="K42" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7063,25 +7060,25 @@
       </c>
       <c r="L42" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,120, &gt;&gt;   skills_classselectiontext40.dbr</v>
+        <v>echo textBoxY,322, &gt;&gt;   skills_classselectiontext40.dbr</v>
       </c>
       <c r="M42" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName40, &gt;&gt;   skills_classselectiontext40.dbr</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton40.dbr</v>
       </c>
       <c r="O42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext40.dbr</v>
       </c>
       <c r="P42" t="s">
         <v>47</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH40</v>
       </c>
     </row>
@@ -7103,8 +7100,8 @@
         <v>750</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="11"/>
-        <v>140</v>
+        <f t="shared" si="13"/>
+        <v>345</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" si="3"/>
@@ -7112,7 +7109,7 @@
       </c>
       <c r="G43" s="6">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>345</v>
       </c>
       <c r="H43" s="6" t="str">
         <f t="shared" si="4"/>
@@ -7124,7 +7121,7 @@
       </c>
       <c r="J43" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,120, &gt;&gt;  skills_classselectionbutton40.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,322, &gt;&gt;  skills_classselectionbutton40.dbr </v>
       </c>
       <c r="K43" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7132,25 +7129,25 @@
       </c>
       <c r="L43" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,140, &gt;&gt;   skills_classselectiontext41.dbr</v>
+        <v>echo textBoxY,345, &gt;&gt;   skills_classselectiontext41.dbr</v>
       </c>
       <c r="M43" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName41, &gt;&gt;   skills_classselectiontext41.dbr</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton41.dbr</v>
       </c>
       <c r="O43" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext41.dbr</v>
       </c>
       <c r="P43" t="s">
         <v>47</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH41</v>
       </c>
     </row>
@@ -7172,8 +7169,8 @@
         <v>750</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="11"/>
-        <v>160</v>
+        <f t="shared" si="13"/>
+        <v>368</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" si="3"/>
@@ -7181,7 +7178,7 @@
       </c>
       <c r="G44" s="6">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>368</v>
       </c>
       <c r="H44" s="6" t="str">
         <f t="shared" si="4"/>
@@ -7193,7 +7190,7 @@
       </c>
       <c r="J44" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,140, &gt;&gt;  skills_classselectionbutton41.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,345, &gt;&gt;  skills_classselectionbutton41.dbr </v>
       </c>
       <c r="K44" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7201,25 +7198,25 @@
       </c>
       <c r="L44" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,160, &gt;&gt;   skills_classselectiontext42.dbr</v>
+        <v>echo textBoxY,368, &gt;&gt;   skills_classselectiontext42.dbr</v>
       </c>
       <c r="M44" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName42, &gt;&gt;   skills_classselectiontext42.dbr</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton42.dbr</v>
       </c>
       <c r="O44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext42.dbr</v>
       </c>
       <c r="P44" t="s">
         <v>47</v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH42</v>
       </c>
     </row>
@@ -7241,8 +7238,8 @@
         <v>750</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="11"/>
-        <v>180</v>
+        <f t="shared" si="13"/>
+        <v>391</v>
       </c>
       <c r="F45" s="6">
         <f t="shared" si="3"/>
@@ -7250,7 +7247,7 @@
       </c>
       <c r="G45" s="6">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>391</v>
       </c>
       <c r="H45" s="6" t="str">
         <f t="shared" si="4"/>
@@ -7262,7 +7259,7 @@
       </c>
       <c r="J45" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,160, &gt;&gt;  skills_classselectionbutton42.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,368, &gt;&gt;  skills_classselectionbutton42.dbr </v>
       </c>
       <c r="K45" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7270,25 +7267,25 @@
       </c>
       <c r="L45" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,180, &gt;&gt;   skills_classselectiontext43.dbr</v>
+        <v>echo textBoxY,391, &gt;&gt;   skills_classselectiontext43.dbr</v>
       </c>
       <c r="M45" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName43, &gt;&gt;   skills_classselectiontext43.dbr</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton43.dbr</v>
       </c>
       <c r="O45" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext43.dbr</v>
       </c>
       <c r="P45" t="s">
         <v>47</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH43</v>
       </c>
     </row>
@@ -7310,8 +7307,8 @@
         <v>750</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="11"/>
-        <v>200</v>
+        <f t="shared" si="13"/>
+        <v>414</v>
       </c>
       <c r="F46" s="6">
         <f t="shared" si="3"/>
@@ -7319,7 +7316,7 @@
       </c>
       <c r="G46" s="6">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>414</v>
       </c>
       <c r="H46" s="6" t="str">
         <f t="shared" si="4"/>
@@ -7331,7 +7328,7 @@
       </c>
       <c r="J46" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,180, &gt;&gt;  skills_classselectionbutton43.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,391, &gt;&gt;  skills_classselectionbutton43.dbr </v>
       </c>
       <c r="K46" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7339,25 +7336,25 @@
       </c>
       <c r="L46" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,200, &gt;&gt;   skills_classselectiontext44.dbr</v>
+        <v>echo textBoxY,414, &gt;&gt;   skills_classselectiontext44.dbr</v>
       </c>
       <c r="M46" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName44, &gt;&gt;   skills_classselectiontext44.dbr</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton44.dbr</v>
       </c>
       <c r="O46" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext44.dbr</v>
       </c>
       <c r="P46" t="s">
         <v>47</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH44</v>
       </c>
     </row>
@@ -7379,8 +7376,8 @@
         <v>750</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="11"/>
-        <v>220</v>
+        <f t="shared" si="13"/>
+        <v>437</v>
       </c>
       <c r="F47" s="6">
         <f t="shared" si="3"/>
@@ -7388,7 +7385,7 @@
       </c>
       <c r="G47" s="6">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>437</v>
       </c>
       <c r="H47" s="6" t="str">
         <f t="shared" si="4"/>
@@ -7400,7 +7397,7 @@
       </c>
       <c r="J47" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,200, &gt;&gt;  skills_classselectionbutton44.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,414, &gt;&gt;  skills_classselectionbutton44.dbr </v>
       </c>
       <c r="K47" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7408,25 +7405,25 @@
       </c>
       <c r="L47" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,220, &gt;&gt;   skills_classselectiontext45.dbr</v>
+        <v>echo textBoxY,437, &gt;&gt;   skills_classselectiontext45.dbr</v>
       </c>
       <c r="M47" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName45, &gt;&gt;   skills_classselectiontext45.dbr</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton45.dbr</v>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext45.dbr</v>
       </c>
       <c r="P47" t="s">
         <v>47</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH45</v>
       </c>
     </row>
@@ -7448,8 +7445,8 @@
         <v>750</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="11"/>
-        <v>240</v>
+        <f t="shared" si="13"/>
+        <v>460</v>
       </c>
       <c r="F48" s="6">
         <f t="shared" si="3"/>
@@ -7457,7 +7454,7 @@
       </c>
       <c r="G48" s="6">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>460</v>
       </c>
       <c r="H48" s="6" t="str">
         <f t="shared" si="4"/>
@@ -7469,7 +7466,7 @@
       </c>
       <c r="J48" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,220, &gt;&gt;  skills_classselectionbutton45.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,437, &gt;&gt;  skills_classselectionbutton45.dbr </v>
       </c>
       <c r="K48" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7477,25 +7474,25 @@
       </c>
       <c r="L48" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,240, &gt;&gt;   skills_classselectiontext46.dbr</v>
+        <v>echo textBoxY,460, &gt;&gt;   skills_classselectiontext46.dbr</v>
       </c>
       <c r="M48" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName46, &gt;&gt;   skills_classselectiontext46.dbr</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton46.dbr</v>
       </c>
       <c r="O48" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext46.dbr</v>
       </c>
       <c r="P48" t="s">
         <v>47</v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH46</v>
       </c>
     </row>
@@ -7517,8 +7514,8 @@
         <v>750</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="11"/>
-        <v>260</v>
+        <f t="shared" si="13"/>
+        <v>483</v>
       </c>
       <c r="F49" s="6">
         <f t="shared" si="3"/>
@@ -7526,7 +7523,7 @@
       </c>
       <c r="G49" s="6">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>483</v>
       </c>
       <c r="H49" s="6" t="str">
         <f t="shared" si="4"/>
@@ -7538,7 +7535,7 @@
       </c>
       <c r="J49" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,240, &gt;&gt;  skills_classselectionbutton46.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,460, &gt;&gt;  skills_classselectionbutton46.dbr </v>
       </c>
       <c r="K49" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7546,25 +7543,25 @@
       </c>
       <c r="L49" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,260, &gt;&gt;   skills_classselectiontext47.dbr</v>
+        <v>echo textBoxY,483, &gt;&gt;   skills_classselectiontext47.dbr</v>
       </c>
       <c r="M49" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName47, &gt;&gt;   skills_classselectiontext47.dbr</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton47.dbr</v>
       </c>
       <c r="O49" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext47.dbr</v>
       </c>
       <c r="P49" t="s">
         <v>47</v>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH47</v>
       </c>
     </row>
@@ -7586,8 +7583,8 @@
         <v>750</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="11"/>
-        <v>280</v>
+        <f t="shared" si="13"/>
+        <v>506</v>
       </c>
       <c r="F50" s="6">
         <f t="shared" si="3"/>
@@ -7595,7 +7592,7 @@
       </c>
       <c r="G50" s="6">
         <f t="shared" si="2"/>
-        <v>280</v>
+        <v>506</v>
       </c>
       <c r="H50" s="6" t="str">
         <f t="shared" si="4"/>
@@ -7607,7 +7604,7 @@
       </c>
       <c r="J50" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,260, &gt;&gt;  skills_classselectionbutton47.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,483, &gt;&gt;  skills_classselectionbutton47.dbr </v>
       </c>
       <c r="K50" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7615,25 +7612,25 @@
       </c>
       <c r="L50" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,280, &gt;&gt;   skills_classselectiontext48.dbr</v>
+        <v>echo textBoxY,506, &gt;&gt;   skills_classselectiontext48.dbr</v>
       </c>
       <c r="M50" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName48, &gt;&gt;   skills_classselectiontext48.dbr</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton48.dbr</v>
       </c>
       <c r="O50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext48.dbr</v>
       </c>
       <c r="P50" t="s">
         <v>47</v>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH48</v>
       </c>
     </row>
@@ -7655,8 +7652,8 @@
         <v>750</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="11"/>
-        <v>300</v>
+        <f t="shared" si="13"/>
+        <v>529</v>
       </c>
       <c r="F51" s="6">
         <f t="shared" si="3"/>
@@ -7664,7 +7661,7 @@
       </c>
       <c r="G51" s="6">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>529</v>
       </c>
       <c r="H51" s="6" t="str">
         <f t="shared" si="4"/>
@@ -7676,7 +7673,7 @@
       </c>
       <c r="J51" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,280, &gt;&gt;  skills_classselectionbutton48.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,506, &gt;&gt;  skills_classselectionbutton48.dbr </v>
       </c>
       <c r="K51" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7684,25 +7681,25 @@
       </c>
       <c r="L51" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,300, &gt;&gt;   skills_classselectiontext49.dbr</v>
+        <v>echo textBoxY,529, &gt;&gt;   skills_classselectiontext49.dbr</v>
       </c>
       <c r="M51" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName49, &gt;&gt;   skills_classselectiontext49.dbr</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton49.dbr</v>
       </c>
       <c r="O51" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext49.dbr</v>
       </c>
       <c r="P51" t="s">
         <v>47</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH49</v>
       </c>
     </row>
@@ -7724,8 +7721,8 @@
         <v>750</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="11"/>
-        <v>320</v>
+        <f t="shared" si="13"/>
+        <v>552</v>
       </c>
       <c r="F52" s="6">
         <f t="shared" si="3"/>
@@ -7733,7 +7730,7 @@
       </c>
       <c r="G52" s="6">
         <f t="shared" si="2"/>
-        <v>320</v>
+        <v>552</v>
       </c>
       <c r="H52" s="6" t="str">
         <f t="shared" si="4"/>
@@ -7745,7 +7742,7 @@
       </c>
       <c r="J52" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,300, &gt;&gt;  skills_classselectionbutton49.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,529, &gt;&gt;  skills_classselectionbutton49.dbr </v>
       </c>
       <c r="K52" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7753,25 +7750,25 @@
       </c>
       <c r="L52" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,320, &gt;&gt;   skills_classselectiontext50.dbr</v>
+        <v>echo textBoxY,552, &gt;&gt;   skills_classselectiontext50.dbr</v>
       </c>
       <c r="M52" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName50, &gt;&gt;   skills_classselectiontext50.dbr</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton50.dbr</v>
       </c>
       <c r="O52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext50.dbr</v>
       </c>
       <c r="P52" t="s">
         <v>47</v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH50</v>
       </c>
     </row>
@@ -7793,8 +7790,8 @@
         <v>750</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="11"/>
-        <v>340</v>
+        <f t="shared" si="13"/>
+        <v>575</v>
       </c>
       <c r="F53" s="6">
         <f t="shared" si="3"/>
@@ -7802,7 +7799,7 @@
       </c>
       <c r="G53" s="6">
         <f t="shared" si="2"/>
-        <v>340</v>
+        <v>575</v>
       </c>
       <c r="H53" s="6" t="str">
         <f t="shared" si="4"/>
@@ -7814,7 +7811,7 @@
       </c>
       <c r="J53" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,320, &gt;&gt;  skills_classselectionbutton50.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,552, &gt;&gt;  skills_classselectionbutton50.dbr </v>
       </c>
       <c r="K53" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7822,25 +7819,25 @@
       </c>
       <c r="L53" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,340, &gt;&gt;   skills_classselectiontext51.dbr</v>
+        <v>echo textBoxY,575, &gt;&gt;   skills_classselectiontext51.dbr</v>
       </c>
       <c r="M53" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName51, &gt;&gt;   skills_classselectiontext51.dbr</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton51.dbr</v>
       </c>
       <c r="O53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext51.dbr</v>
       </c>
       <c r="P53" t="s">
         <v>47</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH51</v>
       </c>
     </row>
@@ -7862,8 +7859,8 @@
         <v>750</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="11"/>
-        <v>360</v>
+        <f t="shared" si="13"/>
+        <v>598</v>
       </c>
       <c r="F54" s="6">
         <f t="shared" si="3"/>
@@ -7871,7 +7868,7 @@
       </c>
       <c r="G54" s="6">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>598</v>
       </c>
       <c r="H54" s="6" t="str">
         <f t="shared" si="4"/>
@@ -7883,7 +7880,7 @@
       </c>
       <c r="J54" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,340, &gt;&gt;  skills_classselectionbutton51.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,575, &gt;&gt;  skills_classselectionbutton51.dbr </v>
       </c>
       <c r="K54" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7891,25 +7888,25 @@
       </c>
       <c r="L54" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,360, &gt;&gt;   skills_classselectiontext52.dbr</v>
+        <v>echo textBoxY,598, &gt;&gt;   skills_classselectiontext52.dbr</v>
       </c>
       <c r="M54" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName52, &gt;&gt;   skills_classselectiontext52.dbr</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton52.dbr</v>
       </c>
       <c r="O54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext52.dbr</v>
       </c>
       <c r="P54" t="s">
         <v>47</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH52</v>
       </c>
     </row>
@@ -7931,8 +7928,8 @@
         <v>750</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="11"/>
-        <v>380</v>
+        <f t="shared" si="13"/>
+        <v>621</v>
       </c>
       <c r="F55" s="6">
         <f t="shared" si="3"/>
@@ -7940,7 +7937,7 @@
       </c>
       <c r="G55" s="6">
         <f t="shared" si="2"/>
-        <v>380</v>
+        <v>621</v>
       </c>
       <c r="H55" s="6" t="str">
         <f t="shared" si="4"/>
@@ -7952,7 +7949,7 @@
       </c>
       <c r="J55" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,360, &gt;&gt;  skills_classselectionbutton52.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,598, &gt;&gt;  skills_classselectionbutton52.dbr </v>
       </c>
       <c r="K55" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7960,25 +7957,25 @@
       </c>
       <c r="L55" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,380, &gt;&gt;   skills_classselectiontext53.dbr</v>
+        <v>echo textBoxY,621, &gt;&gt;   skills_classselectiontext53.dbr</v>
       </c>
       <c r="M55" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName53, &gt;&gt;   skills_classselectiontext53.dbr</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton53.dbr</v>
       </c>
       <c r="O55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext53.dbr</v>
       </c>
       <c r="P55" t="s">
         <v>47</v>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH53</v>
       </c>
     </row>
@@ -8000,8 +7997,8 @@
         <v>750</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="11"/>
-        <v>400</v>
+        <f t="shared" si="13"/>
+        <v>644</v>
       </c>
       <c r="F56" s="6">
         <f t="shared" si="3"/>
@@ -8009,7 +8006,7 @@
       </c>
       <c r="G56" s="6">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>644</v>
       </c>
       <c r="H56" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8021,7 +8018,7 @@
       </c>
       <c r="J56" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,380, &gt;&gt;  skills_classselectionbutton53.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,621, &gt;&gt;  skills_classselectionbutton53.dbr </v>
       </c>
       <c r="K56" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8029,25 +8026,25 @@
       </c>
       <c r="L56" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,400, &gt;&gt;   skills_classselectiontext54.dbr</v>
+        <v>echo textBoxY,644, &gt;&gt;   skills_classselectiontext54.dbr</v>
       </c>
       <c r="M56" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName54, &gt;&gt;   skills_classselectiontext54.dbr</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton54.dbr</v>
       </c>
       <c r="O56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext54.dbr</v>
       </c>
       <c r="P56" t="s">
         <v>47</v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH54</v>
       </c>
     </row>
@@ -8069,8 +8066,8 @@
         <v>750</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="11"/>
-        <v>420</v>
+        <f t="shared" si="13"/>
+        <v>667</v>
       </c>
       <c r="F57" s="6">
         <f t="shared" si="3"/>
@@ -8078,7 +8075,7 @@
       </c>
       <c r="G57" s="6">
         <f t="shared" si="2"/>
-        <v>420</v>
+        <v>667</v>
       </c>
       <c r="H57" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8090,7 +8087,7 @@
       </c>
       <c r="J57" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,400, &gt;&gt;  skills_classselectionbutton54.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,644, &gt;&gt;  skills_classselectionbutton54.dbr </v>
       </c>
       <c r="K57" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8098,25 +8095,25 @@
       </c>
       <c r="L57" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,420, &gt;&gt;   skills_classselectiontext55.dbr</v>
+        <v>echo textBoxY,667, &gt;&gt;   skills_classselectiontext55.dbr</v>
       </c>
       <c r="M57" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName55, &gt;&gt;   skills_classselectiontext55.dbr</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton55.dbr</v>
       </c>
       <c r="O57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext55.dbr</v>
       </c>
       <c r="P57" t="s">
         <v>47</v>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH55</v>
       </c>
     </row>
@@ -8138,8 +8135,8 @@
         <v>750</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="11"/>
-        <v>440</v>
+        <f t="shared" si="13"/>
+        <v>690</v>
       </c>
       <c r="F58" s="6">
         <f t="shared" si="3"/>
@@ -8147,7 +8144,7 @@
       </c>
       <c r="G58" s="6">
         <f t="shared" si="2"/>
-        <v>440</v>
+        <v>690</v>
       </c>
       <c r="H58" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8159,7 +8156,7 @@
       </c>
       <c r="J58" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,420, &gt;&gt;  skills_classselectionbutton55.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,667, &gt;&gt;  skills_classselectionbutton55.dbr </v>
       </c>
       <c r="K58" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8167,25 +8164,25 @@
       </c>
       <c r="L58" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,440, &gt;&gt;   skills_classselectiontext56.dbr</v>
+        <v>echo textBoxY,690, &gt;&gt;   skills_classselectiontext56.dbr</v>
       </c>
       <c r="M58" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName56, &gt;&gt;   skills_classselectiontext56.dbr</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton56.dbr</v>
       </c>
       <c r="O58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext56.dbr</v>
       </c>
       <c r="P58" t="s">
         <v>47</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH56</v>
       </c>
     </row>
@@ -8207,8 +8204,8 @@
         <v>750</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="11"/>
-        <v>460</v>
+        <f t="shared" si="13"/>
+        <v>713</v>
       </c>
       <c r="F59" s="6">
         <f t="shared" si="3"/>
@@ -8216,7 +8213,7 @@
       </c>
       <c r="G59" s="6">
         <f t="shared" si="2"/>
-        <v>460</v>
+        <v>713</v>
       </c>
       <c r="H59" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8228,7 +8225,7 @@
       </c>
       <c r="J59" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,440, &gt;&gt;  skills_classselectionbutton56.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,690, &gt;&gt;  skills_classselectionbutton56.dbr </v>
       </c>
       <c r="K59" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8236,25 +8233,25 @@
       </c>
       <c r="L59" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,460, &gt;&gt;   skills_classselectiontext57.dbr</v>
+        <v>echo textBoxY,713, &gt;&gt;   skills_classselectiontext57.dbr</v>
       </c>
       <c r="M59" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName57, &gt;&gt;   skills_classselectiontext57.dbr</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton57.dbr</v>
       </c>
       <c r="O59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext57.dbr</v>
       </c>
       <c r="P59" t="s">
         <v>47</v>
       </c>
       <c r="Q59" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH57</v>
       </c>
     </row>
@@ -8276,8 +8273,8 @@
         <v>750</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="11"/>
-        <v>480</v>
+        <f t="shared" si="13"/>
+        <v>736</v>
       </c>
       <c r="F60" s="6">
         <f t="shared" si="3"/>
@@ -8285,7 +8282,7 @@
       </c>
       <c r="G60" s="6">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>736</v>
       </c>
       <c r="H60" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8297,7 +8294,7 @@
       </c>
       <c r="J60" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,460, &gt;&gt;  skills_classselectionbutton57.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,713, &gt;&gt;  skills_classselectionbutton57.dbr </v>
       </c>
       <c r="K60" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8305,25 +8302,25 @@
       </c>
       <c r="L60" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,480, &gt;&gt;   skills_classselectiontext58.dbr</v>
+        <v>echo textBoxY,736, &gt;&gt;   skills_classselectiontext58.dbr</v>
       </c>
       <c r="M60" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName58, &gt;&gt;   skills_classselectiontext58.dbr</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton58.dbr</v>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext58.dbr</v>
       </c>
       <c r="P60" t="s">
         <v>47</v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH58</v>
       </c>
     </row>
@@ -8345,8 +8342,8 @@
         <v>750</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="11"/>
-        <v>500</v>
+        <f t="shared" si="13"/>
+        <v>759</v>
       </c>
       <c r="F61" s="6">
         <f t="shared" si="3"/>
@@ -8354,7 +8351,7 @@
       </c>
       <c r="G61" s="6">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="H61" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8366,7 +8363,7 @@
       </c>
       <c r="J61" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,480, &gt;&gt;  skills_classselectionbutton58.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,736, &gt;&gt;  skills_classselectionbutton58.dbr </v>
       </c>
       <c r="K61" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8374,25 +8371,25 @@
       </c>
       <c r="L61" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,500, &gt;&gt;   skills_classselectiontext59.dbr</v>
+        <v>echo textBoxY,759, &gt;&gt;   skills_classselectiontext59.dbr</v>
       </c>
       <c r="M61" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName59, &gt;&gt;   skills_classselectiontext59.dbr</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton59.dbr</v>
       </c>
       <c r="O61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext59.dbr</v>
       </c>
       <c r="P61" t="s">
         <v>47</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH59</v>
       </c>
     </row>
@@ -8414,8 +8411,8 @@
         <v>750</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="11"/>
-        <v>520</v>
+        <f t="shared" si="13"/>
+        <v>782</v>
       </c>
       <c r="F62" s="6">
         <f t="shared" si="3"/>
@@ -8423,7 +8420,7 @@
       </c>
       <c r="G62" s="6">
         <f t="shared" si="2"/>
-        <v>520</v>
+        <v>782</v>
       </c>
       <c r="H62" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8435,7 +8432,7 @@
       </c>
       <c r="J62" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,500, &gt;&gt;  skills_classselectionbutton59.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,759, &gt;&gt;  skills_classselectionbutton59.dbr </v>
       </c>
       <c r="K62" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8443,25 +8440,25 @@
       </c>
       <c r="L62" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,520, &gt;&gt;   skills_classselectiontext60.dbr</v>
+        <v>echo textBoxY,782, &gt;&gt;   skills_classselectiontext60.dbr</v>
       </c>
       <c r="M62" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName60, &gt;&gt;   skills_classselectiontext60.dbr</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton60.dbr</v>
       </c>
       <c r="O62" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext60.dbr</v>
       </c>
       <c r="P62" t="s">
         <v>47</v>
       </c>
       <c r="Q62" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH60</v>
       </c>
     </row>
@@ -8483,8 +8480,8 @@
         <v>750</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="11"/>
-        <v>540</v>
+        <f t="shared" si="13"/>
+        <v>805</v>
       </c>
       <c r="F63" s="6">
         <f t="shared" si="3"/>
@@ -8492,7 +8489,7 @@
       </c>
       <c r="G63" s="6">
         <f t="shared" si="2"/>
-        <v>540</v>
+        <v>805</v>
       </c>
       <c r="H63" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8504,7 +8501,7 @@
       </c>
       <c r="J63" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,520, &gt;&gt;  skills_classselectionbutton60.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,782, &gt;&gt;  skills_classselectionbutton60.dbr </v>
       </c>
       <c r="K63" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8512,25 +8509,25 @@
       </c>
       <c r="L63" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,540, &gt;&gt;   skills_classselectiontext61.dbr</v>
+        <v>echo textBoxY,805, &gt;&gt;   skills_classselectiontext61.dbr</v>
       </c>
       <c r="M63" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName61, &gt;&gt;   skills_classselectiontext61.dbr</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton61.dbr</v>
       </c>
       <c r="O63" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext61.dbr</v>
       </c>
       <c r="P63" t="s">
         <v>47</v>
       </c>
       <c r="Q63" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH61</v>
       </c>
     </row>
@@ -8552,8 +8549,8 @@
         <v>750</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="11"/>
-        <v>560</v>
+        <f t="shared" si="13"/>
+        <v>828</v>
       </c>
       <c r="F64" s="6">
         <f t="shared" si="3"/>
@@ -8561,7 +8558,7 @@
       </c>
       <c r="G64" s="6">
         <f t="shared" si="2"/>
-        <v>560</v>
+        <v>828</v>
       </c>
       <c r="H64" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8573,7 +8570,7 @@
       </c>
       <c r="J64" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,540, &gt;&gt;  skills_classselectionbutton61.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,805, &gt;&gt;  skills_classselectionbutton61.dbr </v>
       </c>
       <c r="K64" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8581,25 +8578,25 @@
       </c>
       <c r="L64" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,560, &gt;&gt;   skills_classselectiontext62.dbr</v>
+        <v>echo textBoxY,828, &gt;&gt;   skills_classselectiontext62.dbr</v>
       </c>
       <c r="M64" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName62, &gt;&gt;   skills_classselectiontext62.dbr</v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton62.dbr</v>
       </c>
       <c r="O64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext62.dbr</v>
       </c>
       <c r="P64" t="s">
         <v>47</v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH62</v>
       </c>
     </row>
@@ -8621,8 +8618,8 @@
         <v>750</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="11"/>
-        <v>580</v>
+        <f t="shared" si="13"/>
+        <v>851</v>
       </c>
       <c r="F65" s="6">
         <f t="shared" si="3"/>
@@ -8630,7 +8627,7 @@
       </c>
       <c r="G65" s="6">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>851</v>
       </c>
       <c r="H65" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8642,7 +8639,7 @@
       </c>
       <c r="J65" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,560, &gt;&gt;  skills_classselectionbutton62.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,828, &gt;&gt;  skills_classselectionbutton62.dbr </v>
       </c>
       <c r="K65" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8650,25 +8647,25 @@
       </c>
       <c r="L65" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,580, &gt;&gt;   skills_classselectiontext63.dbr</v>
+        <v>echo textBoxY,851, &gt;&gt;   skills_classselectiontext63.dbr</v>
       </c>
       <c r="M65" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName63, &gt;&gt;   skills_classselectiontext63.dbr</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton63.dbr</v>
       </c>
       <c r="O65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext63.dbr</v>
       </c>
       <c r="P65" t="s">
         <v>47</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH63</v>
       </c>
     </row>
@@ -8690,8 +8687,8 @@
         <v>750</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="11"/>
-        <v>600</v>
+        <f t="shared" si="13"/>
+        <v>874</v>
       </c>
       <c r="F66" s="6">
         <f t="shared" si="3"/>
@@ -8699,7 +8696,7 @@
       </c>
       <c r="G66" s="6">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>874</v>
       </c>
       <c r="H66" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8711,7 +8708,7 @@
       </c>
       <c r="J66" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,580, &gt;&gt;  skills_classselectionbutton63.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,851, &gt;&gt;  skills_classselectionbutton63.dbr </v>
       </c>
       <c r="K66" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8719,25 +8716,25 @@
       </c>
       <c r="L66" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,600, &gt;&gt;   skills_classselectiontext64.dbr</v>
+        <v>echo textBoxY,874, &gt;&gt;   skills_classselectiontext64.dbr</v>
       </c>
       <c r="M66" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName64, &gt;&gt;   skills_classselectiontext64.dbr</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton64.dbr</v>
       </c>
       <c r="O66" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext64.dbr</v>
       </c>
       <c r="P66" t="s">
         <v>47</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH64</v>
       </c>
     </row>
@@ -8759,16 +8756,16 @@
         <v>750</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="11"/>
-        <v>620</v>
+        <f t="shared" si="13"/>
+        <v>897</v>
       </c>
       <c r="F67" s="6">
         <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G67" s="6">
-        <f t="shared" ref="G67:G101" si="16">E67</f>
-        <v>620</v>
+        <f t="shared" ref="G67:G101" si="17">E67</f>
+        <v>897</v>
       </c>
       <c r="H67" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8780,7 +8777,7 @@
       </c>
       <c r="J67" s="5" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">echo bitmapPositionY,600, &gt;&gt;  skills_classselectionbutton64.dbr </v>
+        <v xml:space="preserve">echo bitmapPositionY,874, &gt;&gt;  skills_classselectionbutton64.dbr </v>
       </c>
       <c r="K67" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8788,25 +8785,25 @@
       </c>
       <c r="L67" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>echo textBoxY,620, &gt;&gt;   skills_classselectiontext65.dbr</v>
+        <v>echo textBoxY,897, &gt;&gt;   skills_classselectiontext65.dbr</v>
       </c>
       <c r="M67" s="5" t="str">
         <f t="shared" si="9"/>
         <v>echo textTag,tagSkillClassName65, &gt;&gt;   skills_classselectiontext65.dbr</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton65.dbr</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext65.dbr</v>
       </c>
       <c r="P67" t="s">
         <v>47</v>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH65</v>
       </c>
     </row>
@@ -8816,11 +8813,11 @@
         <v>66</v>
       </c>
       <c r="B68" s="5" t="str">
-        <f t="shared" ref="B68:B101" si="17">"copy sct.dbr skills_classselectionbutton"&amp;A68&amp;".dbr /y"</f>
+        <f t="shared" ref="B68:B101" si="18">"copy sct.dbr skills_classselectionbutton"&amp;A68&amp;".dbr /y"</f>
         <v>copy sct.dbr skills_classselectionbutton66.dbr /y</v>
       </c>
       <c r="C68" s="5" t="str">
-        <f t="shared" ref="C68:C101" si="18">"copy sst.dbr skills_classselectiontext"&amp;A68&amp;".dbr /y"</f>
+        <f t="shared" ref="C68:C101" si="19">"copy sst.dbr skills_classselectiontext"&amp;A68&amp;".dbr /y"</f>
         <v>copy sst.dbr skills_classselectiontext66.dbr /y</v>
       </c>
       <c r="D68" s="1">
@@ -8828,68 +8825,68 @@
         <v>750</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="11"/>
-        <v>640</v>
+        <f t="shared" si="13"/>
+        <v>920</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" ref="F68:F101" si="19">D68</f>
+        <f t="shared" ref="F68:F101" si="20">D68</f>
         <v>750</v>
       </c>
       <c r="G68" s="6">
-        <f t="shared" si="16"/>
-        <v>640</v>
+        <f t="shared" si="17"/>
+        <v>920</v>
       </c>
       <c r="H68" s="6" t="str">
-        <f t="shared" ref="H68:H101" si="20">"tagSkillClassName"&amp;A68</f>
+        <f t="shared" ref="H68:H101" si="21">"tagSkillClassName"&amp;A68</f>
         <v>tagSkillClassName66</v>
       </c>
       <c r="I68" s="5" t="str">
-        <f t="shared" ref="I68:I101" si="21">"echo bitmapPositionX,"&amp;D68&amp;", &gt;&gt;  skills_classselectionbutton"&amp;A68&amp;".dbr "</f>
+        <f t="shared" ref="I68:I101" si="22">"echo bitmapPositionX,"&amp;D68&amp;", &gt;&gt;  skills_classselectionbutton"&amp;A68&amp;".dbr "</f>
         <v xml:space="preserve">echo bitmapPositionX,750, &gt;&gt;  skills_classselectionbutton66.dbr </v>
       </c>
       <c r="J68" s="5" t="str">
-        <f t="shared" ref="J68:J101" si="22">"echo bitmapPositionY,"&amp;E67&amp;", &gt;&gt;  skills_classselectionbutton"&amp;A67&amp;".dbr "</f>
-        <v xml:space="preserve">echo bitmapPositionY,620, &gt;&gt;  skills_classselectionbutton65.dbr </v>
+        <f t="shared" ref="J68:J101" si="23">"echo bitmapPositionY,"&amp;E67&amp;", &gt;&gt;  skills_classselectionbutton"&amp;A67&amp;".dbr "</f>
+        <v xml:space="preserve">echo bitmapPositionY,897, &gt;&gt;  skills_classselectionbutton65.dbr </v>
       </c>
       <c r="K68" s="5" t="str">
-        <f t="shared" ref="K68:K101" si="23">"echo textBoxX,"&amp;F68&amp;", &gt;&gt;   skills_classselectiontext"&amp;A68&amp;".dbr"</f>
+        <f t="shared" ref="K68:K101" si="24">"echo textBoxX,"&amp;F68&amp;", &gt;&gt;   skills_classselectiontext"&amp;A68&amp;".dbr"</f>
         <v>echo textBoxX,750, &gt;&gt;   skills_classselectiontext66.dbr</v>
       </c>
       <c r="L68" s="5" t="str">
-        <f t="shared" ref="L68:L101" si="24">"echo textBoxY,"&amp;G68&amp;", &gt;&gt;   skills_classselectiontext"&amp;A68&amp;".dbr"</f>
-        <v>echo textBoxY,640, &gt;&gt;   skills_classselectiontext66.dbr</v>
+        <f t="shared" ref="L68:L101" si="25">"echo textBoxY,"&amp;G68&amp;", &gt;&gt;   skills_classselectiontext"&amp;A68&amp;".dbr"</f>
+        <v>echo textBoxY,920, &gt;&gt;   skills_classselectiontext66.dbr</v>
       </c>
       <c r="M68" s="5" t="str">
-        <f t="shared" ref="M68:M101" si="25">"echo textTag,tagSkillClassName"&amp;A68&amp;", &gt;&gt;   skills_classselectiontext"&amp;A68&amp;".dbr"</f>
+        <f t="shared" ref="M68:M101" si="26">"echo textTag,tagSkillClassName"&amp;A68&amp;", &gt;&gt;   skills_classselectiontext"&amp;A68&amp;".dbr"</f>
         <v>echo textTag,tagSkillClassName66, &gt;&gt;   skills_classselectiontext66.dbr</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton66.dbr</v>
       </c>
       <c r="O68" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext66.dbr</v>
       </c>
       <c r="P68" t="s">
         <v>47</v>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH66</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <f t="shared" ref="A69:A101" si="26">A68+1</f>
+        <f t="shared" ref="A69:A101" si="27">A68+1</f>
         <v>67</v>
       </c>
       <c r="B69" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>copy sct.dbr skills_classselectionbutton67.dbr /y</v>
       </c>
       <c r="C69" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>copy sst.dbr skills_classselectiontext67.dbr /y</v>
       </c>
       <c r="D69" s="1">
@@ -8900,2258 +8897,2258 @@
         <v>0</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1025</v>
       </c>
       <c r="G69" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H69" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>tagSkillClassName67</v>
       </c>
       <c r="I69" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton67.dbr </v>
       </c>
       <c r="J69" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,640, &gt;&gt;  skills_classselectionbutton66.dbr </v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,920, &gt;&gt;  skills_classselectionbutton66.dbr </v>
       </c>
       <c r="K69" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext67.dbr</v>
       </c>
       <c r="L69" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>echo textBoxY,0, &gt;&gt;   skills_classselectiontext67.dbr</v>
       </c>
       <c r="M69" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>echo textTag,tagSkillClassName67, &gt;&gt;   skills_classselectiontext67.dbr</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton67.dbr</v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext67.dbr</v>
       </c>
       <c r="P69" t="s">
         <v>47</v>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH67</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
+        <f t="shared" si="27"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton68.dbr /y</v>
+      </c>
+      <c r="C70" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext68.dbr /y</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" ref="D70:D101" si="28">D69</f>
+        <v>1025</v>
+      </c>
+      <c r="E70" s="1">
+        <f>E69+23</f>
+        <v>23</v>
+      </c>
+      <c r="F70" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G70" s="6">
+        <f t="shared" si="17"/>
+        <v>23</v>
+      </c>
+      <c r="H70" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName68</v>
+      </c>
+      <c r="I70" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton68.dbr </v>
+      </c>
+      <c r="J70" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,0, &gt;&gt;  skills_classselectionbutton67.dbr </v>
+      </c>
+      <c r="K70" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext68.dbr</v>
+      </c>
+      <c r="L70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,23, &gt;&gt;   skills_classselectiontext68.dbr</v>
+      </c>
+      <c r="M70" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>68</v>
-      </c>
-      <c r="B70" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton68.dbr /y</v>
-      </c>
-      <c r="C70" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext68.dbr /y</v>
-      </c>
-      <c r="D70" s="1">
-        <f t="shared" ref="D70:D101" si="27">D69</f>
-        <v>1025</v>
-      </c>
-      <c r="E70" s="1">
-        <f t="shared" ref="E70:E101" si="28">E69+20</f>
-        <v>20</v>
-      </c>
-      <c r="F70" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G70" s="6">
-        <f t="shared" si="16"/>
-        <v>20</v>
-      </c>
-      <c r="H70" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName68</v>
-      </c>
-      <c r="I70" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton68.dbr </v>
-      </c>
-      <c r="J70" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,0, &gt;&gt;  skills_classselectionbutton67.dbr </v>
-      </c>
-      <c r="K70" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext68.dbr</v>
-      </c>
-      <c r="L70" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,20, &gt;&gt;   skills_classselectiontext68.dbr</v>
-      </c>
-      <c r="M70" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName68, &gt;&gt;   skills_classselectiontext68.dbr</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton68.dbr</v>
       </c>
       <c r="O70" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext68.dbr</v>
       </c>
       <c r="P70" t="s">
         <v>47</v>
       </c>
       <c r="Q70" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH68</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
+        <f t="shared" si="27"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton69.dbr /y</v>
+      </c>
+      <c r="C71" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext69.dbr /y</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" ref="E71:E101" si="29">E70+23</f>
+        <v>46</v>
+      </c>
+      <c r="F71" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G71" s="6">
+        <f t="shared" si="17"/>
+        <v>46</v>
+      </c>
+      <c r="H71" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName69</v>
+      </c>
+      <c r="I71" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton69.dbr </v>
+      </c>
+      <c r="J71" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,23, &gt;&gt;  skills_classselectionbutton68.dbr </v>
+      </c>
+      <c r="K71" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext69.dbr</v>
+      </c>
+      <c r="L71" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,46, &gt;&gt;   skills_classselectiontext69.dbr</v>
+      </c>
+      <c r="M71" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>69</v>
-      </c>
-      <c r="B71" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton69.dbr /y</v>
-      </c>
-      <c r="C71" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext69.dbr /y</v>
-      </c>
-      <c r="D71" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E71" s="1">
-        <f t="shared" si="28"/>
-        <v>40</v>
-      </c>
-      <c r="F71" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G71" s="6">
-        <f t="shared" si="16"/>
-        <v>40</v>
-      </c>
-      <c r="H71" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName69</v>
-      </c>
-      <c r="I71" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton69.dbr </v>
-      </c>
-      <c r="J71" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,20, &gt;&gt;  skills_classselectionbutton68.dbr </v>
-      </c>
-      <c r="K71" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext69.dbr</v>
-      </c>
-      <c r="L71" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,40, &gt;&gt;   skills_classselectiontext69.dbr</v>
-      </c>
-      <c r="M71" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName69, &gt;&gt;   skills_classselectiontext69.dbr</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton69.dbr</v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext69.dbr</v>
       </c>
       <c r="P71" t="s">
         <v>47</v>
       </c>
       <c r="Q71" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH69</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
+        <f t="shared" si="27"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton70.dbr /y</v>
+      </c>
+      <c r="C72" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext70.dbr /y</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E72" s="1">
+        <f t="shared" si="29"/>
+        <v>69</v>
+      </c>
+      <c r="F72" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G72" s="6">
+        <f t="shared" si="17"/>
+        <v>69</v>
+      </c>
+      <c r="H72" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName70</v>
+      </c>
+      <c r="I72" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton70.dbr </v>
+      </c>
+      <c r="J72" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,46, &gt;&gt;  skills_classselectionbutton69.dbr </v>
+      </c>
+      <c r="K72" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext70.dbr</v>
+      </c>
+      <c r="L72" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,69, &gt;&gt;   skills_classselectiontext70.dbr</v>
+      </c>
+      <c r="M72" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>70</v>
-      </c>
-      <c r="B72" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton70.dbr /y</v>
-      </c>
-      <c r="C72" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext70.dbr /y</v>
-      </c>
-      <c r="D72" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E72" s="1">
-        <f t="shared" si="28"/>
-        <v>60</v>
-      </c>
-      <c r="F72" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G72" s="6">
-        <f t="shared" si="16"/>
-        <v>60</v>
-      </c>
-      <c r="H72" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName70</v>
-      </c>
-      <c r="I72" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton70.dbr </v>
-      </c>
-      <c r="J72" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,40, &gt;&gt;  skills_classselectionbutton69.dbr </v>
-      </c>
-      <c r="K72" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext70.dbr</v>
-      </c>
-      <c r="L72" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,60, &gt;&gt;   skills_classselectiontext70.dbr</v>
-      </c>
-      <c r="M72" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName70, &gt;&gt;   skills_classselectiontext70.dbr</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton70.dbr</v>
       </c>
       <c r="O72" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext70.dbr</v>
       </c>
       <c r="P72" t="s">
         <v>47</v>
       </c>
       <c r="Q72" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH70</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
+        <f t="shared" si="27"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton71.dbr /y</v>
+      </c>
+      <c r="C73" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext71.dbr /y</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E73" s="1">
+        <f t="shared" si="29"/>
+        <v>92</v>
+      </c>
+      <c r="F73" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G73" s="6">
+        <f t="shared" si="17"/>
+        <v>92</v>
+      </c>
+      <c r="H73" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName71</v>
+      </c>
+      <c r="I73" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton71.dbr </v>
+      </c>
+      <c r="J73" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,69, &gt;&gt;  skills_classselectionbutton70.dbr </v>
+      </c>
+      <c r="K73" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext71.dbr</v>
+      </c>
+      <c r="L73" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,92, &gt;&gt;   skills_classselectiontext71.dbr</v>
+      </c>
+      <c r="M73" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>71</v>
-      </c>
-      <c r="B73" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton71.dbr /y</v>
-      </c>
-      <c r="C73" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext71.dbr /y</v>
-      </c>
-      <c r="D73" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E73" s="1">
-        <f t="shared" si="28"/>
-        <v>80</v>
-      </c>
-      <c r="F73" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G73" s="6">
-        <f t="shared" si="16"/>
-        <v>80</v>
-      </c>
-      <c r="H73" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName71</v>
-      </c>
-      <c r="I73" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton71.dbr </v>
-      </c>
-      <c r="J73" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,60, &gt;&gt;  skills_classselectionbutton70.dbr </v>
-      </c>
-      <c r="K73" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext71.dbr</v>
-      </c>
-      <c r="L73" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,80, &gt;&gt;   skills_classselectiontext71.dbr</v>
-      </c>
-      <c r="M73" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName71, &gt;&gt;   skills_classselectiontext71.dbr</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton71.dbr</v>
       </c>
       <c r="O73" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext71.dbr</v>
       </c>
       <c r="P73" t="s">
         <v>47</v>
       </c>
       <c r="Q73" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH71</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
+        <f t="shared" si="27"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton72.dbr /y</v>
+      </c>
+      <c r="C74" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext72.dbr /y</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E74" s="1">
+        <f t="shared" si="29"/>
+        <v>115</v>
+      </c>
+      <c r="F74" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G74" s="6">
+        <f t="shared" si="17"/>
+        <v>115</v>
+      </c>
+      <c r="H74" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName72</v>
+      </c>
+      <c r="I74" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton72.dbr </v>
+      </c>
+      <c r="J74" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,92, &gt;&gt;  skills_classselectionbutton71.dbr </v>
+      </c>
+      <c r="K74" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext72.dbr</v>
+      </c>
+      <c r="L74" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,115, &gt;&gt;   skills_classselectiontext72.dbr</v>
+      </c>
+      <c r="M74" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>72</v>
-      </c>
-      <c r="B74" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton72.dbr /y</v>
-      </c>
-      <c r="C74" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext72.dbr /y</v>
-      </c>
-      <c r="D74" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E74" s="1">
-        <f t="shared" si="28"/>
-        <v>100</v>
-      </c>
-      <c r="F74" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G74" s="6">
-        <f t="shared" si="16"/>
-        <v>100</v>
-      </c>
-      <c r="H74" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName72</v>
-      </c>
-      <c r="I74" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton72.dbr </v>
-      </c>
-      <c r="J74" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,80, &gt;&gt;  skills_classselectionbutton71.dbr </v>
-      </c>
-      <c r="K74" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext72.dbr</v>
-      </c>
-      <c r="L74" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,100, &gt;&gt;   skills_classselectiontext72.dbr</v>
-      </c>
-      <c r="M74" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName72, &gt;&gt;   skills_classselectiontext72.dbr</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton72.dbr</v>
       </c>
       <c r="O74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext72.dbr</v>
       </c>
       <c r="P74" t="s">
         <v>47</v>
       </c>
       <c r="Q74" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH72</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
+        <f t="shared" si="27"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton73.dbr /y</v>
+      </c>
+      <c r="C75" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext73.dbr /y</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" si="29"/>
+        <v>138</v>
+      </c>
+      <c r="F75" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G75" s="6">
+        <f t="shared" si="17"/>
+        <v>138</v>
+      </c>
+      <c r="H75" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName73</v>
+      </c>
+      <c r="I75" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton73.dbr </v>
+      </c>
+      <c r="J75" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,115, &gt;&gt;  skills_classselectionbutton72.dbr </v>
+      </c>
+      <c r="K75" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext73.dbr</v>
+      </c>
+      <c r="L75" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,138, &gt;&gt;   skills_classselectiontext73.dbr</v>
+      </c>
+      <c r="M75" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>73</v>
-      </c>
-      <c r="B75" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton73.dbr /y</v>
-      </c>
-      <c r="C75" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext73.dbr /y</v>
-      </c>
-      <c r="D75" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E75" s="1">
-        <f t="shared" si="28"/>
-        <v>120</v>
-      </c>
-      <c r="F75" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G75" s="6">
-        <f t="shared" si="16"/>
-        <v>120</v>
-      </c>
-      <c r="H75" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName73</v>
-      </c>
-      <c r="I75" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton73.dbr </v>
-      </c>
-      <c r="J75" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,100, &gt;&gt;  skills_classselectionbutton72.dbr </v>
-      </c>
-      <c r="K75" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext73.dbr</v>
-      </c>
-      <c r="L75" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,120, &gt;&gt;   skills_classselectiontext73.dbr</v>
-      </c>
-      <c r="M75" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName73, &gt;&gt;   skills_classselectiontext73.dbr</v>
       </c>
       <c r="N75" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton73.dbr</v>
       </c>
       <c r="O75" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext73.dbr</v>
       </c>
       <c r="P75" t="s">
         <v>47</v>
       </c>
       <c r="Q75" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH73</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
+        <f t="shared" si="27"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton74.dbr /y</v>
+      </c>
+      <c r="C76" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext74.dbr /y</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E76" s="1">
+        <f t="shared" si="29"/>
+        <v>161</v>
+      </c>
+      <c r="F76" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G76" s="6">
+        <f t="shared" si="17"/>
+        <v>161</v>
+      </c>
+      <c r="H76" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName74</v>
+      </c>
+      <c r="I76" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton74.dbr </v>
+      </c>
+      <c r="J76" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,138, &gt;&gt;  skills_classselectionbutton73.dbr </v>
+      </c>
+      <c r="K76" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext74.dbr</v>
+      </c>
+      <c r="L76" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,161, &gt;&gt;   skills_classselectiontext74.dbr</v>
+      </c>
+      <c r="M76" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>74</v>
-      </c>
-      <c r="B76" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton74.dbr /y</v>
-      </c>
-      <c r="C76" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext74.dbr /y</v>
-      </c>
-      <c r="D76" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E76" s="1">
-        <f t="shared" si="28"/>
-        <v>140</v>
-      </c>
-      <c r="F76" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G76" s="6">
-        <f t="shared" si="16"/>
-        <v>140</v>
-      </c>
-      <c r="H76" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName74</v>
-      </c>
-      <c r="I76" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton74.dbr </v>
-      </c>
-      <c r="J76" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,120, &gt;&gt;  skills_classselectionbutton73.dbr </v>
-      </c>
-      <c r="K76" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext74.dbr</v>
-      </c>
-      <c r="L76" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,140, &gt;&gt;   skills_classselectiontext74.dbr</v>
-      </c>
-      <c r="M76" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName74, &gt;&gt;   skills_classselectiontext74.dbr</v>
       </c>
       <c r="N76" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton74.dbr</v>
       </c>
       <c r="O76" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext74.dbr</v>
       </c>
       <c r="P76" t="s">
         <v>47</v>
       </c>
       <c r="Q76" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH74</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
+        <f t="shared" si="27"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton75.dbr /y</v>
+      </c>
+      <c r="C77" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext75.dbr /y</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" si="29"/>
+        <v>184</v>
+      </c>
+      <c r="F77" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G77" s="6">
+        <f t="shared" si="17"/>
+        <v>184</v>
+      </c>
+      <c r="H77" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName75</v>
+      </c>
+      <c r="I77" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton75.dbr </v>
+      </c>
+      <c r="J77" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,161, &gt;&gt;  skills_classselectionbutton74.dbr </v>
+      </c>
+      <c r="K77" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext75.dbr</v>
+      </c>
+      <c r="L77" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,184, &gt;&gt;   skills_classselectiontext75.dbr</v>
+      </c>
+      <c r="M77" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>75</v>
-      </c>
-      <c r="B77" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton75.dbr /y</v>
-      </c>
-      <c r="C77" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext75.dbr /y</v>
-      </c>
-      <c r="D77" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E77" s="1">
-        <f t="shared" si="28"/>
-        <v>160</v>
-      </c>
-      <c r="F77" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G77" s="6">
-        <f t="shared" si="16"/>
-        <v>160</v>
-      </c>
-      <c r="H77" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName75</v>
-      </c>
-      <c r="I77" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton75.dbr </v>
-      </c>
-      <c r="J77" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,140, &gt;&gt;  skills_classselectionbutton74.dbr </v>
-      </c>
-      <c r="K77" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext75.dbr</v>
-      </c>
-      <c r="L77" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,160, &gt;&gt;   skills_classselectiontext75.dbr</v>
-      </c>
-      <c r="M77" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName75, &gt;&gt;   skills_classselectiontext75.dbr</v>
       </c>
       <c r="N77" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton75.dbr</v>
       </c>
       <c r="O77" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext75.dbr</v>
       </c>
       <c r="P77" t="s">
         <v>47</v>
       </c>
       <c r="Q77" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH75</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
+        <f t="shared" si="27"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton76.dbr /y</v>
+      </c>
+      <c r="C78" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext76.dbr /y</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" si="29"/>
+        <v>207</v>
+      </c>
+      <c r="F78" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G78" s="6">
+        <f t="shared" si="17"/>
+        <v>207</v>
+      </c>
+      <c r="H78" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName76</v>
+      </c>
+      <c r="I78" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton76.dbr </v>
+      </c>
+      <c r="J78" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,184, &gt;&gt;  skills_classselectionbutton75.dbr </v>
+      </c>
+      <c r="K78" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext76.dbr</v>
+      </c>
+      <c r="L78" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,207, &gt;&gt;   skills_classselectiontext76.dbr</v>
+      </c>
+      <c r="M78" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>76</v>
-      </c>
-      <c r="B78" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton76.dbr /y</v>
-      </c>
-      <c r="C78" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext76.dbr /y</v>
-      </c>
-      <c r="D78" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E78" s="1">
-        <f t="shared" si="28"/>
-        <v>180</v>
-      </c>
-      <c r="F78" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G78" s="6">
-        <f t="shared" si="16"/>
-        <v>180</v>
-      </c>
-      <c r="H78" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName76</v>
-      </c>
-      <c r="I78" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton76.dbr </v>
-      </c>
-      <c r="J78" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,160, &gt;&gt;  skills_classselectionbutton75.dbr </v>
-      </c>
-      <c r="K78" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext76.dbr</v>
-      </c>
-      <c r="L78" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,180, &gt;&gt;   skills_classselectiontext76.dbr</v>
-      </c>
-      <c r="M78" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName76, &gt;&gt;   skills_classselectiontext76.dbr</v>
       </c>
       <c r="N78" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton76.dbr</v>
       </c>
       <c r="O78" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext76.dbr</v>
       </c>
       <c r="P78" t="s">
         <v>47</v>
       </c>
       <c r="Q78" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH76</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
+        <f t="shared" si="27"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton77.dbr /y</v>
+      </c>
+      <c r="C79" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext77.dbr /y</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E79" s="1">
+        <f t="shared" si="29"/>
+        <v>230</v>
+      </c>
+      <c r="F79" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G79" s="6">
+        <f t="shared" si="17"/>
+        <v>230</v>
+      </c>
+      <c r="H79" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName77</v>
+      </c>
+      <c r="I79" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton77.dbr </v>
+      </c>
+      <c r="J79" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,207, &gt;&gt;  skills_classselectionbutton76.dbr </v>
+      </c>
+      <c r="K79" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext77.dbr</v>
+      </c>
+      <c r="L79" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,230, &gt;&gt;   skills_classselectiontext77.dbr</v>
+      </c>
+      <c r="M79" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>77</v>
-      </c>
-      <c r="B79" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton77.dbr /y</v>
-      </c>
-      <c r="C79" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext77.dbr /y</v>
-      </c>
-      <c r="D79" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E79" s="1">
-        <f t="shared" si="28"/>
-        <v>200</v>
-      </c>
-      <c r="F79" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G79" s="6">
-        <f t="shared" si="16"/>
-        <v>200</v>
-      </c>
-      <c r="H79" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName77</v>
-      </c>
-      <c r="I79" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton77.dbr </v>
-      </c>
-      <c r="J79" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,180, &gt;&gt;  skills_classselectionbutton76.dbr </v>
-      </c>
-      <c r="K79" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext77.dbr</v>
-      </c>
-      <c r="L79" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,200, &gt;&gt;   skills_classselectiontext77.dbr</v>
-      </c>
-      <c r="M79" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName77, &gt;&gt;   skills_classselectiontext77.dbr</v>
       </c>
       <c r="N79" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton77.dbr</v>
       </c>
       <c r="O79" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext77.dbr</v>
       </c>
       <c r="P79" t="s">
         <v>47</v>
       </c>
       <c r="Q79" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH77</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
+        <f t="shared" si="27"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton78.dbr /y</v>
+      </c>
+      <c r="C80" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext78.dbr /y</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E80" s="1">
+        <f t="shared" si="29"/>
+        <v>253</v>
+      </c>
+      <c r="F80" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G80" s="6">
+        <f t="shared" si="17"/>
+        <v>253</v>
+      </c>
+      <c r="H80" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName78</v>
+      </c>
+      <c r="I80" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton78.dbr </v>
+      </c>
+      <c r="J80" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,230, &gt;&gt;  skills_classselectionbutton77.dbr </v>
+      </c>
+      <c r="K80" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext78.dbr</v>
+      </c>
+      <c r="L80" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,253, &gt;&gt;   skills_classselectiontext78.dbr</v>
+      </c>
+      <c r="M80" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>78</v>
-      </c>
-      <c r="B80" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton78.dbr /y</v>
-      </c>
-      <c r="C80" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext78.dbr /y</v>
-      </c>
-      <c r="D80" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E80" s="1">
-        <f t="shared" si="28"/>
-        <v>220</v>
-      </c>
-      <c r="F80" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G80" s="6">
-        <f t="shared" si="16"/>
-        <v>220</v>
-      </c>
-      <c r="H80" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName78</v>
-      </c>
-      <c r="I80" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton78.dbr </v>
-      </c>
-      <c r="J80" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,200, &gt;&gt;  skills_classselectionbutton77.dbr </v>
-      </c>
-      <c r="K80" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext78.dbr</v>
-      </c>
-      <c r="L80" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,220, &gt;&gt;   skills_classselectiontext78.dbr</v>
-      </c>
-      <c r="M80" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName78, &gt;&gt;   skills_classselectiontext78.dbr</v>
       </c>
       <c r="N80" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton78.dbr</v>
       </c>
       <c r="O80" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext78.dbr</v>
       </c>
       <c r="P80" t="s">
         <v>47</v>
       </c>
       <c r="Q80" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH78</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
+        <f t="shared" si="27"/>
+        <v>79</v>
+      </c>
+      <c r="B81" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton79.dbr /y</v>
+      </c>
+      <c r="C81" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext79.dbr /y</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E81" s="1">
+        <f t="shared" si="29"/>
+        <v>276</v>
+      </c>
+      <c r="F81" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G81" s="6">
+        <f t="shared" si="17"/>
+        <v>276</v>
+      </c>
+      <c r="H81" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName79</v>
+      </c>
+      <c r="I81" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton79.dbr </v>
+      </c>
+      <c r="J81" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,253, &gt;&gt;  skills_classselectionbutton78.dbr </v>
+      </c>
+      <c r="K81" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext79.dbr</v>
+      </c>
+      <c r="L81" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,276, &gt;&gt;   skills_classselectiontext79.dbr</v>
+      </c>
+      <c r="M81" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>79</v>
-      </c>
-      <c r="B81" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton79.dbr /y</v>
-      </c>
-      <c r="C81" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext79.dbr /y</v>
-      </c>
-      <c r="D81" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E81" s="1">
-        <f t="shared" si="28"/>
-        <v>240</v>
-      </c>
-      <c r="F81" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G81" s="6">
-        <f t="shared" si="16"/>
-        <v>240</v>
-      </c>
-      <c r="H81" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName79</v>
-      </c>
-      <c r="I81" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton79.dbr </v>
-      </c>
-      <c r="J81" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,220, &gt;&gt;  skills_classselectionbutton78.dbr </v>
-      </c>
-      <c r="K81" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext79.dbr</v>
-      </c>
-      <c r="L81" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,240, &gt;&gt;   skills_classselectiontext79.dbr</v>
-      </c>
-      <c r="M81" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName79, &gt;&gt;   skills_classselectiontext79.dbr</v>
       </c>
       <c r="N81" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton79.dbr</v>
       </c>
       <c r="O81" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext79.dbr</v>
       </c>
       <c r="P81" t="s">
         <v>47</v>
       </c>
       <c r="Q81" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH79</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
+        <f t="shared" si="27"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton80.dbr /y</v>
+      </c>
+      <c r="C82" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext80.dbr /y</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E82" s="1">
+        <f t="shared" si="29"/>
+        <v>299</v>
+      </c>
+      <c r="F82" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G82" s="6">
+        <f t="shared" si="17"/>
+        <v>299</v>
+      </c>
+      <c r="H82" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName80</v>
+      </c>
+      <c r="I82" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton80.dbr </v>
+      </c>
+      <c r="J82" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,276, &gt;&gt;  skills_classselectionbutton79.dbr </v>
+      </c>
+      <c r="K82" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext80.dbr</v>
+      </c>
+      <c r="L82" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,299, &gt;&gt;   skills_classselectiontext80.dbr</v>
+      </c>
+      <c r="M82" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>80</v>
-      </c>
-      <c r="B82" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton80.dbr /y</v>
-      </c>
-      <c r="C82" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext80.dbr /y</v>
-      </c>
-      <c r="D82" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E82" s="1">
-        <f t="shared" si="28"/>
-        <v>260</v>
-      </c>
-      <c r="F82" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G82" s="6">
-        <f t="shared" si="16"/>
-        <v>260</v>
-      </c>
-      <c r="H82" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName80</v>
-      </c>
-      <c r="I82" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton80.dbr </v>
-      </c>
-      <c r="J82" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,240, &gt;&gt;  skills_classselectionbutton79.dbr </v>
-      </c>
-      <c r="K82" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext80.dbr</v>
-      </c>
-      <c r="L82" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,260, &gt;&gt;   skills_classselectiontext80.dbr</v>
-      </c>
-      <c r="M82" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName80, &gt;&gt;   skills_classselectiontext80.dbr</v>
       </c>
       <c r="N82" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton80.dbr</v>
       </c>
       <c r="O82" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext80.dbr</v>
       </c>
       <c r="P82" t="s">
         <v>47</v>
       </c>
       <c r="Q82" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH80</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
+        <f t="shared" si="27"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton81.dbr /y</v>
+      </c>
+      <c r="C83" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext81.dbr /y</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E83" s="1">
+        <f t="shared" si="29"/>
+        <v>322</v>
+      </c>
+      <c r="F83" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G83" s="6">
+        <f t="shared" si="17"/>
+        <v>322</v>
+      </c>
+      <c r="H83" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName81</v>
+      </c>
+      <c r="I83" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton81.dbr </v>
+      </c>
+      <c r="J83" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,299, &gt;&gt;  skills_classselectionbutton80.dbr </v>
+      </c>
+      <c r="K83" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext81.dbr</v>
+      </c>
+      <c r="L83" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,322, &gt;&gt;   skills_classselectiontext81.dbr</v>
+      </c>
+      <c r="M83" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>81</v>
-      </c>
-      <c r="B83" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton81.dbr /y</v>
-      </c>
-      <c r="C83" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext81.dbr /y</v>
-      </c>
-      <c r="D83" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E83" s="1">
-        <f t="shared" si="28"/>
-        <v>280</v>
-      </c>
-      <c r="F83" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G83" s="6">
-        <f t="shared" si="16"/>
-        <v>280</v>
-      </c>
-      <c r="H83" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName81</v>
-      </c>
-      <c r="I83" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton81.dbr </v>
-      </c>
-      <c r="J83" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,260, &gt;&gt;  skills_classselectionbutton80.dbr </v>
-      </c>
-      <c r="K83" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext81.dbr</v>
-      </c>
-      <c r="L83" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,280, &gt;&gt;   skills_classselectiontext81.dbr</v>
-      </c>
-      <c r="M83" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName81, &gt;&gt;   skills_classselectiontext81.dbr</v>
       </c>
       <c r="N83" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton81.dbr</v>
       </c>
       <c r="O83" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext81.dbr</v>
       </c>
       <c r="P83" t="s">
         <v>47</v>
       </c>
       <c r="Q83" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH81</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
+        <f t="shared" si="27"/>
+        <v>82</v>
+      </c>
+      <c r="B84" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton82.dbr /y</v>
+      </c>
+      <c r="C84" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext82.dbr /y</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E84" s="1">
+        <f t="shared" si="29"/>
+        <v>345</v>
+      </c>
+      <c r="F84" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G84" s="6">
+        <f t="shared" si="17"/>
+        <v>345</v>
+      </c>
+      <c r="H84" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName82</v>
+      </c>
+      <c r="I84" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton82.dbr </v>
+      </c>
+      <c r="J84" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,322, &gt;&gt;  skills_classselectionbutton81.dbr </v>
+      </c>
+      <c r="K84" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext82.dbr</v>
+      </c>
+      <c r="L84" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,345, &gt;&gt;   skills_classselectiontext82.dbr</v>
+      </c>
+      <c r="M84" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>82</v>
-      </c>
-      <c r="B84" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton82.dbr /y</v>
-      </c>
-      <c r="C84" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext82.dbr /y</v>
-      </c>
-      <c r="D84" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E84" s="1">
-        <f t="shared" si="28"/>
-        <v>300</v>
-      </c>
-      <c r="F84" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G84" s="6">
-        <f t="shared" si="16"/>
-        <v>300</v>
-      </c>
-      <c r="H84" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName82</v>
-      </c>
-      <c r="I84" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton82.dbr </v>
-      </c>
-      <c r="J84" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,280, &gt;&gt;  skills_classselectionbutton81.dbr </v>
-      </c>
-      <c r="K84" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext82.dbr</v>
-      </c>
-      <c r="L84" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,300, &gt;&gt;   skills_classselectiontext82.dbr</v>
-      </c>
-      <c r="M84" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName82, &gt;&gt;   skills_classselectiontext82.dbr</v>
       </c>
       <c r="N84" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton82.dbr</v>
       </c>
       <c r="O84" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext82.dbr</v>
       </c>
       <c r="P84" t="s">
         <v>47</v>
       </c>
       <c r="Q84" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH82</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
+        <f t="shared" si="27"/>
+        <v>83</v>
+      </c>
+      <c r="B85" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton83.dbr /y</v>
+      </c>
+      <c r="C85" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext83.dbr /y</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E85" s="1">
+        <f t="shared" si="29"/>
+        <v>368</v>
+      </c>
+      <c r="F85" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G85" s="6">
+        <f t="shared" si="17"/>
+        <v>368</v>
+      </c>
+      <c r="H85" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName83</v>
+      </c>
+      <c r="I85" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton83.dbr </v>
+      </c>
+      <c r="J85" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,345, &gt;&gt;  skills_classselectionbutton82.dbr </v>
+      </c>
+      <c r="K85" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext83.dbr</v>
+      </c>
+      <c r="L85" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,368, &gt;&gt;   skills_classselectiontext83.dbr</v>
+      </c>
+      <c r="M85" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>83</v>
-      </c>
-      <c r="B85" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton83.dbr /y</v>
-      </c>
-      <c r="C85" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext83.dbr /y</v>
-      </c>
-      <c r="D85" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E85" s="1">
-        <f t="shared" si="28"/>
-        <v>320</v>
-      </c>
-      <c r="F85" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G85" s="6">
-        <f t="shared" si="16"/>
-        <v>320</v>
-      </c>
-      <c r="H85" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName83</v>
-      </c>
-      <c r="I85" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton83.dbr </v>
-      </c>
-      <c r="J85" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,300, &gt;&gt;  skills_classselectionbutton82.dbr </v>
-      </c>
-      <c r="K85" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext83.dbr</v>
-      </c>
-      <c r="L85" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,320, &gt;&gt;   skills_classselectiontext83.dbr</v>
-      </c>
-      <c r="M85" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName83, &gt;&gt;   skills_classselectiontext83.dbr</v>
       </c>
       <c r="N85" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton83.dbr</v>
       </c>
       <c r="O85" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext83.dbr</v>
       </c>
       <c r="P85" t="s">
         <v>47</v>
       </c>
       <c r="Q85" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH83</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
+        <f t="shared" si="27"/>
+        <v>84</v>
+      </c>
+      <c r="B86" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton84.dbr /y</v>
+      </c>
+      <c r="C86" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext84.dbr /y</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="shared" si="29"/>
+        <v>391</v>
+      </c>
+      <c r="F86" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G86" s="6">
+        <f t="shared" si="17"/>
+        <v>391</v>
+      </c>
+      <c r="H86" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName84</v>
+      </c>
+      <c r="I86" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton84.dbr </v>
+      </c>
+      <c r="J86" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,368, &gt;&gt;  skills_classselectionbutton83.dbr </v>
+      </c>
+      <c r="K86" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext84.dbr</v>
+      </c>
+      <c r="L86" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,391, &gt;&gt;   skills_classselectiontext84.dbr</v>
+      </c>
+      <c r="M86" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>84</v>
-      </c>
-      <c r="B86" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton84.dbr /y</v>
-      </c>
-      <c r="C86" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext84.dbr /y</v>
-      </c>
-      <c r="D86" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E86" s="1">
-        <f t="shared" si="28"/>
-        <v>340</v>
-      </c>
-      <c r="F86" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G86" s="6">
-        <f t="shared" si="16"/>
-        <v>340</v>
-      </c>
-      <c r="H86" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName84</v>
-      </c>
-      <c r="I86" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton84.dbr </v>
-      </c>
-      <c r="J86" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,320, &gt;&gt;  skills_classselectionbutton83.dbr </v>
-      </c>
-      <c r="K86" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext84.dbr</v>
-      </c>
-      <c r="L86" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,340, &gt;&gt;   skills_classselectiontext84.dbr</v>
-      </c>
-      <c r="M86" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName84, &gt;&gt;   skills_classselectiontext84.dbr</v>
       </c>
       <c r="N86" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton84.dbr</v>
       </c>
       <c r="O86" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext84.dbr</v>
       </c>
       <c r="P86" t="s">
         <v>47</v>
       </c>
       <c r="Q86" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH84</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
+        <f t="shared" si="27"/>
+        <v>85</v>
+      </c>
+      <c r="B87" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton85.dbr /y</v>
+      </c>
+      <c r="C87" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext85.dbr /y</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E87" s="1">
+        <f t="shared" si="29"/>
+        <v>414</v>
+      </c>
+      <c r="F87" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G87" s="6">
+        <f t="shared" si="17"/>
+        <v>414</v>
+      </c>
+      <c r="H87" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName85</v>
+      </c>
+      <c r="I87" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton85.dbr </v>
+      </c>
+      <c r="J87" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,391, &gt;&gt;  skills_classselectionbutton84.dbr </v>
+      </c>
+      <c r="K87" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext85.dbr</v>
+      </c>
+      <c r="L87" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,414, &gt;&gt;   skills_classselectiontext85.dbr</v>
+      </c>
+      <c r="M87" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>85</v>
-      </c>
-      <c r="B87" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton85.dbr /y</v>
-      </c>
-      <c r="C87" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext85.dbr /y</v>
-      </c>
-      <c r="D87" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E87" s="1">
-        <f t="shared" si="28"/>
-        <v>360</v>
-      </c>
-      <c r="F87" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G87" s="6">
-        <f t="shared" si="16"/>
-        <v>360</v>
-      </c>
-      <c r="H87" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName85</v>
-      </c>
-      <c r="I87" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton85.dbr </v>
-      </c>
-      <c r="J87" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,340, &gt;&gt;  skills_classselectionbutton84.dbr </v>
-      </c>
-      <c r="K87" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext85.dbr</v>
-      </c>
-      <c r="L87" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,360, &gt;&gt;   skills_classselectiontext85.dbr</v>
-      </c>
-      <c r="M87" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName85, &gt;&gt;   skills_classselectiontext85.dbr</v>
       </c>
       <c r="N87" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton85.dbr</v>
       </c>
       <c r="O87" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext85.dbr</v>
       </c>
       <c r="P87" t="s">
         <v>47</v>
       </c>
       <c r="Q87" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH85</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
+        <f t="shared" si="27"/>
+        <v>86</v>
+      </c>
+      <c r="B88" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton86.dbr /y</v>
+      </c>
+      <c r="C88" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext86.dbr /y</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E88" s="1">
+        <f t="shared" si="29"/>
+        <v>437</v>
+      </c>
+      <c r="F88" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G88" s="6">
+        <f t="shared" si="17"/>
+        <v>437</v>
+      </c>
+      <c r="H88" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName86</v>
+      </c>
+      <c r="I88" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton86.dbr </v>
+      </c>
+      <c r="J88" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,414, &gt;&gt;  skills_classselectionbutton85.dbr </v>
+      </c>
+      <c r="K88" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext86.dbr</v>
+      </c>
+      <c r="L88" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,437, &gt;&gt;   skills_classselectiontext86.dbr</v>
+      </c>
+      <c r="M88" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>86</v>
-      </c>
-      <c r="B88" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton86.dbr /y</v>
-      </c>
-      <c r="C88" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext86.dbr /y</v>
-      </c>
-      <c r="D88" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E88" s="1">
-        <f t="shared" si="28"/>
-        <v>380</v>
-      </c>
-      <c r="F88" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G88" s="6">
-        <f t="shared" si="16"/>
-        <v>380</v>
-      </c>
-      <c r="H88" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName86</v>
-      </c>
-      <c r="I88" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton86.dbr </v>
-      </c>
-      <c r="J88" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,360, &gt;&gt;  skills_classselectionbutton85.dbr </v>
-      </c>
-      <c r="K88" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext86.dbr</v>
-      </c>
-      <c r="L88" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,380, &gt;&gt;   skills_classselectiontext86.dbr</v>
-      </c>
-      <c r="M88" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName86, &gt;&gt;   skills_classselectiontext86.dbr</v>
       </c>
       <c r="N88" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton86.dbr</v>
       </c>
       <c r="O88" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext86.dbr</v>
       </c>
       <c r="P88" t="s">
         <v>47</v>
       </c>
       <c r="Q88" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH86</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
+        <f t="shared" si="27"/>
+        <v>87</v>
+      </c>
+      <c r="B89" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton87.dbr /y</v>
+      </c>
+      <c r="C89" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext87.dbr /y</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E89" s="1">
+        <f t="shared" si="29"/>
+        <v>460</v>
+      </c>
+      <c r="F89" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G89" s="6">
+        <f t="shared" si="17"/>
+        <v>460</v>
+      </c>
+      <c r="H89" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName87</v>
+      </c>
+      <c r="I89" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton87.dbr </v>
+      </c>
+      <c r="J89" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,437, &gt;&gt;  skills_classselectionbutton86.dbr </v>
+      </c>
+      <c r="K89" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext87.dbr</v>
+      </c>
+      <c r="L89" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,460, &gt;&gt;   skills_classselectiontext87.dbr</v>
+      </c>
+      <c r="M89" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>87</v>
-      </c>
-      <c r="B89" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton87.dbr /y</v>
-      </c>
-      <c r="C89" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext87.dbr /y</v>
-      </c>
-      <c r="D89" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E89" s="1">
-        <f t="shared" si="28"/>
-        <v>400</v>
-      </c>
-      <c r="F89" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G89" s="6">
-        <f t="shared" si="16"/>
-        <v>400</v>
-      </c>
-      <c r="H89" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName87</v>
-      </c>
-      <c r="I89" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton87.dbr </v>
-      </c>
-      <c r="J89" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,380, &gt;&gt;  skills_classselectionbutton86.dbr </v>
-      </c>
-      <c r="K89" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext87.dbr</v>
-      </c>
-      <c r="L89" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,400, &gt;&gt;   skills_classselectiontext87.dbr</v>
-      </c>
-      <c r="M89" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName87, &gt;&gt;   skills_classselectiontext87.dbr</v>
       </c>
       <c r="N89" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton87.dbr</v>
       </c>
       <c r="O89" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext87.dbr</v>
       </c>
       <c r="P89" t="s">
         <v>47</v>
       </c>
       <c r="Q89" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH87</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
+        <f t="shared" si="27"/>
+        <v>88</v>
+      </c>
+      <c r="B90" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton88.dbr /y</v>
+      </c>
+      <c r="C90" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext88.dbr /y</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E90" s="1">
+        <f t="shared" si="29"/>
+        <v>483</v>
+      </c>
+      <c r="F90" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G90" s="6">
+        <f t="shared" si="17"/>
+        <v>483</v>
+      </c>
+      <c r="H90" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName88</v>
+      </c>
+      <c r="I90" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton88.dbr </v>
+      </c>
+      <c r="J90" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,460, &gt;&gt;  skills_classselectionbutton87.dbr </v>
+      </c>
+      <c r="K90" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext88.dbr</v>
+      </c>
+      <c r="L90" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,483, &gt;&gt;   skills_classselectiontext88.dbr</v>
+      </c>
+      <c r="M90" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>88</v>
-      </c>
-      <c r="B90" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton88.dbr /y</v>
-      </c>
-      <c r="C90" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext88.dbr /y</v>
-      </c>
-      <c r="D90" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E90" s="1">
-        <f t="shared" si="28"/>
-        <v>420</v>
-      </c>
-      <c r="F90" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G90" s="6">
-        <f t="shared" si="16"/>
-        <v>420</v>
-      </c>
-      <c r="H90" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName88</v>
-      </c>
-      <c r="I90" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton88.dbr </v>
-      </c>
-      <c r="J90" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,400, &gt;&gt;  skills_classselectionbutton87.dbr </v>
-      </c>
-      <c r="K90" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext88.dbr</v>
-      </c>
-      <c r="L90" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,420, &gt;&gt;   skills_classselectiontext88.dbr</v>
-      </c>
-      <c r="M90" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName88, &gt;&gt;   skills_classselectiontext88.dbr</v>
       </c>
       <c r="N90" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton88.dbr</v>
       </c>
       <c r="O90" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext88.dbr</v>
       </c>
       <c r="P90" t="s">
         <v>47</v>
       </c>
       <c r="Q90" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH88</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
+        <f t="shared" si="27"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton89.dbr /y</v>
+      </c>
+      <c r="C91" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext89.dbr /y</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E91" s="1">
+        <f t="shared" si="29"/>
+        <v>506</v>
+      </c>
+      <c r="F91" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G91" s="6">
+        <f t="shared" si="17"/>
+        <v>506</v>
+      </c>
+      <c r="H91" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName89</v>
+      </c>
+      <c r="I91" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton89.dbr </v>
+      </c>
+      <c r="J91" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,483, &gt;&gt;  skills_classselectionbutton88.dbr </v>
+      </c>
+      <c r="K91" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext89.dbr</v>
+      </c>
+      <c r="L91" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,506, &gt;&gt;   skills_classselectiontext89.dbr</v>
+      </c>
+      <c r="M91" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>89</v>
-      </c>
-      <c r="B91" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton89.dbr /y</v>
-      </c>
-      <c r="C91" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext89.dbr /y</v>
-      </c>
-      <c r="D91" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E91" s="1">
-        <f t="shared" si="28"/>
-        <v>440</v>
-      </c>
-      <c r="F91" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G91" s="6">
-        <f t="shared" si="16"/>
-        <v>440</v>
-      </c>
-      <c r="H91" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName89</v>
-      </c>
-      <c r="I91" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton89.dbr </v>
-      </c>
-      <c r="J91" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,420, &gt;&gt;  skills_classselectionbutton88.dbr </v>
-      </c>
-      <c r="K91" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext89.dbr</v>
-      </c>
-      <c r="L91" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,440, &gt;&gt;   skills_classselectiontext89.dbr</v>
-      </c>
-      <c r="M91" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName89, &gt;&gt;   skills_classselectiontext89.dbr</v>
       </c>
       <c r="N91" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton89.dbr</v>
       </c>
       <c r="O91" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext89.dbr</v>
       </c>
       <c r="P91" t="s">
         <v>47</v>
       </c>
       <c r="Q91" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH89</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
+        <f t="shared" si="27"/>
+        <v>90</v>
+      </c>
+      <c r="B92" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton90.dbr /y</v>
+      </c>
+      <c r="C92" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext90.dbr /y</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E92" s="1">
+        <f t="shared" si="29"/>
+        <v>529</v>
+      </c>
+      <c r="F92" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G92" s="6">
+        <f t="shared" si="17"/>
+        <v>529</v>
+      </c>
+      <c r="H92" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName90</v>
+      </c>
+      <c r="I92" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton90.dbr </v>
+      </c>
+      <c r="J92" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,506, &gt;&gt;  skills_classselectionbutton89.dbr </v>
+      </c>
+      <c r="K92" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext90.dbr</v>
+      </c>
+      <c r="L92" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,529, &gt;&gt;   skills_classselectiontext90.dbr</v>
+      </c>
+      <c r="M92" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>90</v>
-      </c>
-      <c r="B92" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton90.dbr /y</v>
-      </c>
-      <c r="C92" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext90.dbr /y</v>
-      </c>
-      <c r="D92" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E92" s="1">
-        <f t="shared" si="28"/>
-        <v>460</v>
-      </c>
-      <c r="F92" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G92" s="6">
-        <f t="shared" si="16"/>
-        <v>460</v>
-      </c>
-      <c r="H92" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName90</v>
-      </c>
-      <c r="I92" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton90.dbr </v>
-      </c>
-      <c r="J92" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,440, &gt;&gt;  skills_classselectionbutton89.dbr </v>
-      </c>
-      <c r="K92" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext90.dbr</v>
-      </c>
-      <c r="L92" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,460, &gt;&gt;   skills_classselectiontext90.dbr</v>
-      </c>
-      <c r="M92" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName90, &gt;&gt;   skills_classselectiontext90.dbr</v>
       </c>
       <c r="N92" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton90.dbr</v>
       </c>
       <c r="O92" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext90.dbr</v>
       </c>
       <c r="P92" t="s">
         <v>47</v>
       </c>
       <c r="Q92" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH90</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
+        <f t="shared" si="27"/>
+        <v>91</v>
+      </c>
+      <c r="B93" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton91.dbr /y</v>
+      </c>
+      <c r="C93" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext91.dbr /y</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E93" s="1">
+        <f t="shared" si="29"/>
+        <v>552</v>
+      </c>
+      <c r="F93" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G93" s="6">
+        <f t="shared" si="17"/>
+        <v>552</v>
+      </c>
+      <c r="H93" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName91</v>
+      </c>
+      <c r="I93" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton91.dbr </v>
+      </c>
+      <c r="J93" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,529, &gt;&gt;  skills_classselectionbutton90.dbr </v>
+      </c>
+      <c r="K93" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext91.dbr</v>
+      </c>
+      <c r="L93" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,552, &gt;&gt;   skills_classselectiontext91.dbr</v>
+      </c>
+      <c r="M93" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>91</v>
-      </c>
-      <c r="B93" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton91.dbr /y</v>
-      </c>
-      <c r="C93" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext91.dbr /y</v>
-      </c>
-      <c r="D93" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E93" s="1">
-        <f t="shared" si="28"/>
-        <v>480</v>
-      </c>
-      <c r="F93" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G93" s="6">
-        <f t="shared" si="16"/>
-        <v>480</v>
-      </c>
-      <c r="H93" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName91</v>
-      </c>
-      <c r="I93" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton91.dbr </v>
-      </c>
-      <c r="J93" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,460, &gt;&gt;  skills_classselectionbutton90.dbr </v>
-      </c>
-      <c r="K93" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext91.dbr</v>
-      </c>
-      <c r="L93" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,480, &gt;&gt;   skills_classselectiontext91.dbr</v>
-      </c>
-      <c r="M93" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName91, &gt;&gt;   skills_classselectiontext91.dbr</v>
       </c>
       <c r="N93" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton91.dbr</v>
       </c>
       <c r="O93" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext91.dbr</v>
       </c>
       <c r="P93" t="s">
         <v>47</v>
       </c>
       <c r="Q93" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH91</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
+        <f t="shared" si="27"/>
+        <v>92</v>
+      </c>
+      <c r="B94" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton92.dbr /y</v>
+      </c>
+      <c r="C94" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext92.dbr /y</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E94" s="1">
+        <f t="shared" si="29"/>
+        <v>575</v>
+      </c>
+      <c r="F94" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G94" s="6">
+        <f t="shared" si="17"/>
+        <v>575</v>
+      </c>
+      <c r="H94" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName92</v>
+      </c>
+      <c r="I94" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton92.dbr </v>
+      </c>
+      <c r="J94" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,552, &gt;&gt;  skills_classselectionbutton91.dbr </v>
+      </c>
+      <c r="K94" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext92.dbr</v>
+      </c>
+      <c r="L94" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,575, &gt;&gt;   skills_classselectiontext92.dbr</v>
+      </c>
+      <c r="M94" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>92</v>
-      </c>
-      <c r="B94" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton92.dbr /y</v>
-      </c>
-      <c r="C94" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext92.dbr /y</v>
-      </c>
-      <c r="D94" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E94" s="1">
-        <f t="shared" si="28"/>
-        <v>500</v>
-      </c>
-      <c r="F94" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G94" s="6">
-        <f t="shared" si="16"/>
-        <v>500</v>
-      </c>
-      <c r="H94" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName92</v>
-      </c>
-      <c r="I94" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton92.dbr </v>
-      </c>
-      <c r="J94" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,480, &gt;&gt;  skills_classselectionbutton91.dbr </v>
-      </c>
-      <c r="K94" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext92.dbr</v>
-      </c>
-      <c r="L94" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,500, &gt;&gt;   skills_classselectiontext92.dbr</v>
-      </c>
-      <c r="M94" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName92, &gt;&gt;   skills_classselectiontext92.dbr</v>
       </c>
       <c r="N94" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton92.dbr</v>
       </c>
       <c r="O94" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext92.dbr</v>
       </c>
       <c r="P94" t="s">
         <v>47</v>
       </c>
       <c r="Q94" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH92</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
+        <f t="shared" si="27"/>
+        <v>93</v>
+      </c>
+      <c r="B95" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton93.dbr /y</v>
+      </c>
+      <c r="C95" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext93.dbr /y</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E95" s="1">
+        <f t="shared" si="29"/>
+        <v>598</v>
+      </c>
+      <c r="F95" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G95" s="6">
+        <f t="shared" si="17"/>
+        <v>598</v>
+      </c>
+      <c r="H95" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName93</v>
+      </c>
+      <c r="I95" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton93.dbr </v>
+      </c>
+      <c r="J95" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,575, &gt;&gt;  skills_classselectionbutton92.dbr </v>
+      </c>
+      <c r="K95" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext93.dbr</v>
+      </c>
+      <c r="L95" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,598, &gt;&gt;   skills_classselectiontext93.dbr</v>
+      </c>
+      <c r="M95" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>93</v>
-      </c>
-      <c r="B95" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton93.dbr /y</v>
-      </c>
-      <c r="C95" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext93.dbr /y</v>
-      </c>
-      <c r="D95" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E95" s="1">
-        <f t="shared" si="28"/>
-        <v>520</v>
-      </c>
-      <c r="F95" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G95" s="6">
-        <f t="shared" si="16"/>
-        <v>520</v>
-      </c>
-      <c r="H95" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName93</v>
-      </c>
-      <c r="I95" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton93.dbr </v>
-      </c>
-      <c r="J95" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,500, &gt;&gt;  skills_classselectionbutton92.dbr </v>
-      </c>
-      <c r="K95" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext93.dbr</v>
-      </c>
-      <c r="L95" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,520, &gt;&gt;   skills_classselectiontext93.dbr</v>
-      </c>
-      <c r="M95" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName93, &gt;&gt;   skills_classselectiontext93.dbr</v>
       </c>
       <c r="N95" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton93.dbr</v>
       </c>
       <c r="O95" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext93.dbr</v>
       </c>
       <c r="P95" t="s">
         <v>47</v>
       </c>
       <c r="Q95" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH93</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
+        <f t="shared" si="27"/>
+        <v>94</v>
+      </c>
+      <c r="B96" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton94.dbr /y</v>
+      </c>
+      <c r="C96" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext94.dbr /y</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E96" s="1">
+        <f t="shared" si="29"/>
+        <v>621</v>
+      </c>
+      <c r="F96" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G96" s="6">
+        <f t="shared" si="17"/>
+        <v>621</v>
+      </c>
+      <c r="H96" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName94</v>
+      </c>
+      <c r="I96" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton94.dbr </v>
+      </c>
+      <c r="J96" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,598, &gt;&gt;  skills_classselectionbutton93.dbr </v>
+      </c>
+      <c r="K96" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext94.dbr</v>
+      </c>
+      <c r="L96" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,621, &gt;&gt;   skills_classselectiontext94.dbr</v>
+      </c>
+      <c r="M96" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>94</v>
-      </c>
-      <c r="B96" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton94.dbr /y</v>
-      </c>
-      <c r="C96" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext94.dbr /y</v>
-      </c>
-      <c r="D96" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E96" s="1">
-        <f t="shared" si="28"/>
-        <v>540</v>
-      </c>
-      <c r="F96" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G96" s="6">
-        <f t="shared" si="16"/>
-        <v>540</v>
-      </c>
-      <c r="H96" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName94</v>
-      </c>
-      <c r="I96" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton94.dbr </v>
-      </c>
-      <c r="J96" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,520, &gt;&gt;  skills_classselectionbutton93.dbr </v>
-      </c>
-      <c r="K96" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext94.dbr</v>
-      </c>
-      <c r="L96" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,540, &gt;&gt;   skills_classselectiontext94.dbr</v>
-      </c>
-      <c r="M96" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName94, &gt;&gt;   skills_classselectiontext94.dbr</v>
       </c>
       <c r="N96" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton94.dbr</v>
       </c>
       <c r="O96" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext94.dbr</v>
       </c>
       <c r="P96" t="s">
         <v>47</v>
       </c>
       <c r="Q96" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH94</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
+        <f t="shared" si="27"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton95.dbr /y</v>
+      </c>
+      <c r="C97" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext95.dbr /y</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E97" s="1">
+        <f t="shared" si="29"/>
+        <v>644</v>
+      </c>
+      <c r="F97" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G97" s="6">
+        <f t="shared" si="17"/>
+        <v>644</v>
+      </c>
+      <c r="H97" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName95</v>
+      </c>
+      <c r="I97" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton95.dbr </v>
+      </c>
+      <c r="J97" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,621, &gt;&gt;  skills_classselectionbutton94.dbr </v>
+      </c>
+      <c r="K97" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext95.dbr</v>
+      </c>
+      <c r="L97" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,644, &gt;&gt;   skills_classselectiontext95.dbr</v>
+      </c>
+      <c r="M97" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>95</v>
-      </c>
-      <c r="B97" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton95.dbr /y</v>
-      </c>
-      <c r="C97" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext95.dbr /y</v>
-      </c>
-      <c r="D97" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E97" s="1">
-        <f t="shared" si="28"/>
-        <v>560</v>
-      </c>
-      <c r="F97" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G97" s="6">
-        <f t="shared" si="16"/>
-        <v>560</v>
-      </c>
-      <c r="H97" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName95</v>
-      </c>
-      <c r="I97" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton95.dbr </v>
-      </c>
-      <c r="J97" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,540, &gt;&gt;  skills_classselectionbutton94.dbr </v>
-      </c>
-      <c r="K97" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext95.dbr</v>
-      </c>
-      <c r="L97" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,560, &gt;&gt;   skills_classselectiontext95.dbr</v>
-      </c>
-      <c r="M97" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName95, &gt;&gt;   skills_classselectiontext95.dbr</v>
       </c>
       <c r="N97" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton95.dbr</v>
       </c>
       <c r="O97" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext95.dbr</v>
       </c>
       <c r="P97" t="s">
         <v>47</v>
       </c>
       <c r="Q97" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>;tagSkillClassDescriptionPH95</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
+        <f t="shared" si="27"/>
+        <v>96</v>
+      </c>
+      <c r="B98" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton96.dbr /y</v>
+      </c>
+      <c r="C98" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext96.dbr /y</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E98" s="1">
+        <f t="shared" si="29"/>
+        <v>667</v>
+      </c>
+      <c r="F98" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G98" s="6">
+        <f t="shared" si="17"/>
+        <v>667</v>
+      </c>
+      <c r="H98" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName96</v>
+      </c>
+      <c r="I98" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton96.dbr </v>
+      </c>
+      <c r="J98" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,644, &gt;&gt;  skills_classselectionbutton95.dbr </v>
+      </c>
+      <c r="K98" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext96.dbr</v>
+      </c>
+      <c r="L98" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,667, &gt;&gt;   skills_classselectiontext96.dbr</v>
+      </c>
+      <c r="M98" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>96</v>
-      </c>
-      <c r="B98" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton96.dbr /y</v>
-      </c>
-      <c r="C98" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext96.dbr /y</v>
-      </c>
-      <c r="D98" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E98" s="1">
-        <f t="shared" si="28"/>
-        <v>580</v>
-      </c>
-      <c r="F98" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G98" s="6">
-        <f t="shared" si="16"/>
-        <v>580</v>
-      </c>
-      <c r="H98" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName96</v>
-      </c>
-      <c r="I98" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton96.dbr </v>
-      </c>
-      <c r="J98" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,560, &gt;&gt;  skills_classselectionbutton95.dbr </v>
-      </c>
-      <c r="K98" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext96.dbr</v>
-      </c>
-      <c r="L98" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,580, &gt;&gt;   skills_classselectiontext96.dbr</v>
-      </c>
-      <c r="M98" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName96, &gt;&gt;   skills_classselectiontext96.dbr</v>
       </c>
       <c r="N98" t="str">
-        <f t="shared" ref="N98:N101" si="29">";records/ui/skills/classselection/skills_classselectionbutton"&amp;A98&amp;".dbr"</f>
+        <f t="shared" ref="N98:N101" si="30">";records/ui/skills/classselection/skills_classselectionbutton"&amp;A98&amp;".dbr"</f>
         <v>;records/ui/skills/classselection/skills_classselectionbutton96.dbr</v>
       </c>
       <c r="O98" t="str">
-        <f t="shared" ref="O98:O101" si="30">";records/ui/skills/classselection/skills_classselectiontext"&amp;A98&amp;".dbr"</f>
+        <f t="shared" ref="O98:O101" si="31">";records/ui/skills/classselection/skills_classselectiontext"&amp;A98&amp;".dbr"</f>
         <v>;records/ui/skills/classselection/skills_classselectiontext96.dbr</v>
       </c>
       <c r="P98" t="s">
         <v>47</v>
       </c>
       <c r="Q98" t="str">
-        <f t="shared" ref="Q98:Q102" si="31">";tagSkillClassDescriptionPH"&amp;A98</f>
+        <f t="shared" ref="Q98:Q101" si="32">";tagSkillClassDescriptionPH"&amp;A98</f>
         <v>;tagSkillClassDescriptionPH96</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
+        <f t="shared" si="27"/>
+        <v>97</v>
+      </c>
+      <c r="B99" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton97.dbr /y</v>
+      </c>
+      <c r="C99" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext97.dbr /y</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E99" s="1">
+        <f t="shared" si="29"/>
+        <v>690</v>
+      </c>
+      <c r="F99" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G99" s="6">
+        <f t="shared" si="17"/>
+        <v>690</v>
+      </c>
+      <c r="H99" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName97</v>
+      </c>
+      <c r="I99" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton97.dbr </v>
+      </c>
+      <c r="J99" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,667, &gt;&gt;  skills_classselectionbutton96.dbr </v>
+      </c>
+      <c r="K99" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext97.dbr</v>
+      </c>
+      <c r="L99" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,690, &gt;&gt;   skills_classselectiontext97.dbr</v>
+      </c>
+      <c r="M99" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>97</v>
-      </c>
-      <c r="B99" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton97.dbr /y</v>
-      </c>
-      <c r="C99" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext97.dbr /y</v>
-      </c>
-      <c r="D99" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E99" s="1">
-        <f t="shared" si="28"/>
-        <v>600</v>
-      </c>
-      <c r="F99" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G99" s="6">
-        <f t="shared" si="16"/>
-        <v>600</v>
-      </c>
-      <c r="H99" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName97</v>
-      </c>
-      <c r="I99" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton97.dbr </v>
-      </c>
-      <c r="J99" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,580, &gt;&gt;  skills_classselectionbutton96.dbr </v>
-      </c>
-      <c r="K99" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext97.dbr</v>
-      </c>
-      <c r="L99" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,600, &gt;&gt;   skills_classselectiontext97.dbr</v>
-      </c>
-      <c r="M99" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName97, &gt;&gt;   skills_classselectiontext97.dbr</v>
       </c>
       <c r="N99" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton97.dbr</v>
       </c>
       <c r="O99" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext97.dbr</v>
       </c>
       <c r="P99" t="s">
         <v>47</v>
       </c>
       <c r="Q99" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>;tagSkillClassDescriptionPH97</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
+        <f t="shared" si="27"/>
+        <v>98</v>
+      </c>
+      <c r="B100" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton98.dbr /y</v>
+      </c>
+      <c r="C100" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext98.dbr /y</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E100" s="1">
+        <f t="shared" si="29"/>
+        <v>713</v>
+      </c>
+      <c r="F100" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G100" s="6">
+        <f t="shared" si="17"/>
+        <v>713</v>
+      </c>
+      <c r="H100" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName98</v>
+      </c>
+      <c r="I100" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton98.dbr </v>
+      </c>
+      <c r="J100" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,690, &gt;&gt;  skills_classselectionbutton97.dbr </v>
+      </c>
+      <c r="K100" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext98.dbr</v>
+      </c>
+      <c r="L100" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,713, &gt;&gt;   skills_classselectiontext98.dbr</v>
+      </c>
+      <c r="M100" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>98</v>
-      </c>
-      <c r="B100" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton98.dbr /y</v>
-      </c>
-      <c r="C100" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext98.dbr /y</v>
-      </c>
-      <c r="D100" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E100" s="1">
-        <f t="shared" si="28"/>
-        <v>620</v>
-      </c>
-      <c r="F100" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G100" s="6">
-        <f t="shared" si="16"/>
-        <v>620</v>
-      </c>
-      <c r="H100" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName98</v>
-      </c>
-      <c r="I100" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton98.dbr </v>
-      </c>
-      <c r="J100" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,600, &gt;&gt;  skills_classselectionbutton97.dbr </v>
-      </c>
-      <c r="K100" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext98.dbr</v>
-      </c>
-      <c r="L100" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,620, &gt;&gt;   skills_classselectiontext98.dbr</v>
-      </c>
-      <c r="M100" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName98, &gt;&gt;   skills_classselectiontext98.dbr</v>
       </c>
       <c r="N100" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton98.dbr</v>
       </c>
       <c r="O100" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext98.dbr</v>
       </c>
       <c r="P100" t="s">
         <v>47</v>
       </c>
       <c r="Q100" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>;tagSkillClassDescriptionPH98</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
+        <f t="shared" si="27"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>copy sct.dbr skills_classselectionbutton99.dbr /y</v>
+      </c>
+      <c r="C101" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>copy sst.dbr skills_classselectiontext99.dbr /y</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="28"/>
+        <v>1025</v>
+      </c>
+      <c r="E101" s="1">
+        <f t="shared" si="29"/>
+        <v>736</v>
+      </c>
+      <c r="F101" s="6">
+        <f t="shared" si="20"/>
+        <v>1025</v>
+      </c>
+      <c r="G101" s="6">
+        <f t="shared" si="17"/>
+        <v>736</v>
+      </c>
+      <c r="H101" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>tagSkillClassName99</v>
+      </c>
+      <c r="I101" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton99.dbr </v>
+      </c>
+      <c r="J101" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">echo bitmapPositionY,713, &gt;&gt;  skills_classselectionbutton98.dbr </v>
+      </c>
+      <c r="K101" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext99.dbr</v>
+      </c>
+      <c r="L101" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>echo textBoxY,736, &gt;&gt;   skills_classselectiontext99.dbr</v>
+      </c>
+      <c r="M101" s="5" t="str">
         <f t="shared" si="26"/>
-        <v>99</v>
-      </c>
-      <c r="B101" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>copy sct.dbr skills_classselectionbutton99.dbr /y</v>
-      </c>
-      <c r="C101" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>copy sst.dbr skills_classselectiontext99.dbr /y</v>
-      </c>
-      <c r="D101" s="1">
-        <f t="shared" si="27"/>
-        <v>1025</v>
-      </c>
-      <c r="E101" s="1">
-        <f t="shared" si="28"/>
-        <v>640</v>
-      </c>
-      <c r="F101" s="6">
-        <f t="shared" si="19"/>
-        <v>1025</v>
-      </c>
-      <c r="G101" s="6">
-        <f t="shared" si="16"/>
-        <v>640</v>
-      </c>
-      <c r="H101" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>tagSkillClassName99</v>
-      </c>
-      <c r="I101" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">echo bitmapPositionX,1025, &gt;&gt;  skills_classselectionbutton99.dbr </v>
-      </c>
-      <c r="J101" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">echo bitmapPositionY,620, &gt;&gt;  skills_classselectionbutton98.dbr </v>
-      </c>
-      <c r="K101" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>echo textBoxX,1025, &gt;&gt;   skills_classselectiontext99.dbr</v>
-      </c>
-      <c r="L101" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>echo textBoxY,640, &gt;&gt;   skills_classselectiontext99.dbr</v>
-      </c>
-      <c r="M101" s="5" t="str">
-        <f t="shared" si="25"/>
         <v>echo textTag,tagSkillClassName99, &gt;&gt;   skills_classselectiontext99.dbr</v>
       </c>
       <c r="N101" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>;records/ui/skills/classselection/skills_classselectionbutton99.dbr</v>
       </c>
       <c r="O101" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>;records/ui/skills/classselection/skills_classselectiontext99.dbr</v>
       </c>
       <c r="P101" t="s">
         <v>47</v>
       </c>
       <c r="Q101" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>;tagSkillClassDescriptionPH99</v>
       </c>
     </row>
